--- a/mygame.xlsx
+++ b/mygame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="194">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -801,6 +801,10 @@
   </si>
   <si>
     <t>6_12</t>
+  </si>
+  <si>
+    <t>在变中寻不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1796,7 +1800,7 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -9805,8 +9809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H633"/>
   <sheetViews>
-    <sheetView topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="E380" sqref="E380"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9820,7 +9824,7 @@
     <col min="8" max="8" width="60.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="12" t="s">
         <v>45</v>
       </c>
@@ -9843,7 +9847,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27">
+    <row r="2" spans="1:8" ht="27">
       <c r="A2" s="12" t="s">
         <v>46</v>
       </c>
@@ -9866,7 +9870,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1">
+    <row r="3" spans="1:8" s="12" customFormat="1">
       <c r="A3" s="12" t="s">
         <v>134</v>
       </c>
@@ -9889,7 +9893,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="25">
         <v>1</v>
       </c>
@@ -9900,10 +9904,10 @@
         <v>100</v>
       </c>
       <c r="D4" s="25">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E4" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4" s="25">
         <v>0</v>
@@ -9911,8 +9915,11 @@
       <c r="G4" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="25">
         <v>1</v>
       </c>
@@ -9923,10 +9930,10 @@
         <v>100</v>
       </c>
       <c r="D5" s="25">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E5" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5" s="25">
         <v>0</v>
@@ -9934,8 +9941,11 @@
       <c r="G5" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="25">
         <v>1</v>
       </c>
@@ -9946,10 +9956,10 @@
         <v>100</v>
       </c>
       <c r="D6" s="25">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E6" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F6" s="25">
         <v>0</v>
@@ -9957,8 +9967,11 @@
       <c r="G6" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="25">
         <v>1</v>
       </c>
@@ -9969,10 +9982,10 @@
         <v>100</v>
       </c>
       <c r="D7" s="25">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E7" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F7" s="25">
         <v>0</v>
@@ -9980,8 +9993,11 @@
       <c r="G7" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="25">
         <v>1</v>
       </c>
@@ -9992,10 +10008,10 @@
         <v>100</v>
       </c>
       <c r="D8" s="25">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E8" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F8" s="25">
         <v>0</v>
@@ -10003,8 +10019,11 @@
       <c r="G8" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="25">
         <v>1</v>
       </c>
@@ -10015,10 +10034,10 @@
         <v>100</v>
       </c>
       <c r="D9" s="25">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E9" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F9" s="25">
         <v>0</v>
@@ -10026,8 +10045,11 @@
       <c r="G9" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="25">
         <v>1</v>
       </c>
@@ -10038,10 +10060,10 @@
         <v>100</v>
       </c>
       <c r="D10" s="25">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E10" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F10" s="25">
         <v>0</v>
@@ -10049,8 +10071,11 @@
       <c r="G10" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1">
+      <c r="H10" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -10063,8 +10088,8 @@
       <c r="D11" s="1">
         <v>5</v>
       </c>
-      <c r="E11" s="1">
-        <v>10</v>
+      <c r="E11" s="25">
+        <v>15</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -10073,7 +10098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1">
+    <row r="12" spans="1:8" s="1" customFormat="1">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -10086,8 +10111,8 @@
       <c r="D12" s="1">
         <v>5</v>
       </c>
-      <c r="E12" s="1">
-        <v>10</v>
+      <c r="E12" s="25">
+        <v>15</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -10096,7 +10121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1">
+    <row r="13" spans="1:8" s="1" customFormat="1">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -10109,8 +10134,8 @@
       <c r="D13" s="1">
         <v>5</v>
       </c>
-      <c r="E13" s="1">
-        <v>10</v>
+      <c r="E13" s="25">
+        <v>15</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -10119,7 +10144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1">
+    <row r="14" spans="1:8" s="1" customFormat="1">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -10132,8 +10157,8 @@
       <c r="D14" s="1">
         <v>5</v>
       </c>
-      <c r="E14" s="1">
-        <v>10</v>
+      <c r="E14" s="25">
+        <v>15</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -10142,7 +10167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1">
+    <row r="15" spans="1:8" s="1" customFormat="1">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -10155,8 +10180,8 @@
       <c r="D15" s="1">
         <v>5</v>
       </c>
-      <c r="E15" s="1">
-        <v>10</v>
+      <c r="E15" s="25">
+        <v>15</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -10165,7 +10190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1">
+    <row r="16" spans="1:8" s="1" customFormat="1">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -10178,8 +10203,8 @@
       <c r="D16" s="1">
         <v>5</v>
       </c>
-      <c r="E16" s="1">
-        <v>10</v>
+      <c r="E16" s="25">
+        <v>15</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -10201,8 +10226,8 @@
       <c r="D17" s="1">
         <v>5</v>
       </c>
-      <c r="E17" s="1">
-        <v>10</v>
+      <c r="E17" s="25">
+        <v>15</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -10225,7 +10250,7 @@
         <v>-5</v>
       </c>
       <c r="E18" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F18" s="25">
         <v>0</v>
@@ -10248,7 +10273,7 @@
         <v>-5</v>
       </c>
       <c r="E19" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F19" s="25">
         <v>0</v>
@@ -10271,7 +10296,7 @@
         <v>-5</v>
       </c>
       <c r="E20" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F20" s="25">
         <v>0</v>
@@ -10294,7 +10319,7 @@
         <v>-5</v>
       </c>
       <c r="E21" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F21" s="25">
         <v>0</v>
@@ -10317,7 +10342,7 @@
         <v>-5</v>
       </c>
       <c r="E22" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F22" s="25">
         <v>0</v>
@@ -10340,7 +10365,7 @@
         <v>-5</v>
       </c>
       <c r="E23" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F23" s="25">
         <v>0</v>
@@ -10363,7 +10388,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F24" s="25">
         <v>0</v>
@@ -10385,8 +10410,8 @@
       <c r="D25" s="1">
         <v>5</v>
       </c>
-      <c r="E25" s="1">
-        <v>10</v>
+      <c r="E25" s="25">
+        <v>15</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -10408,8 +10433,8 @@
       <c r="D26" s="1">
         <v>5</v>
       </c>
-      <c r="E26" s="1">
-        <v>10</v>
+      <c r="E26" s="25">
+        <v>15</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -10431,8 +10456,8 @@
       <c r="D27" s="1">
         <v>5</v>
       </c>
-      <c r="E27" s="1">
-        <v>10</v>
+      <c r="E27" s="25">
+        <v>15</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -10454,8 +10479,8 @@
       <c r="D28" s="1">
         <v>5</v>
       </c>
-      <c r="E28" s="1">
-        <v>10</v>
+      <c r="E28" s="25">
+        <v>15</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -10477,8 +10502,8 @@
       <c r="D29" s="1">
         <v>5</v>
       </c>
-      <c r="E29" s="1">
-        <v>10</v>
+      <c r="E29" s="25">
+        <v>15</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -10500,8 +10525,8 @@
       <c r="D30" s="1">
         <v>5</v>
       </c>
-      <c r="E30" s="1">
-        <v>10</v>
+      <c r="E30" s="25">
+        <v>15</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -10523,8 +10548,8 @@
       <c r="D31" s="1">
         <v>5</v>
       </c>
-      <c r="E31" s="1">
-        <v>10</v>
+      <c r="E31" s="25">
+        <v>15</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -10547,7 +10572,7 @@
         <v>-5</v>
       </c>
       <c r="E32" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F32" s="25">
         <v>0</v>
@@ -10570,7 +10595,7 @@
         <v>-5</v>
       </c>
       <c r="E33" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F33" s="25">
         <v>0</v>
@@ -10593,7 +10618,7 @@
         <v>-5</v>
       </c>
       <c r="E34" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F34" s="25">
         <v>0</v>
@@ -10616,7 +10641,7 @@
         <v>-5</v>
       </c>
       <c r="E35" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F35" s="25">
         <v>0</v>
@@ -10639,7 +10664,7 @@
         <v>-5</v>
       </c>
       <c r="E36" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F36" s="25">
         <v>0</v>
@@ -10662,7 +10687,7 @@
         <v>-5</v>
       </c>
       <c r="E37" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F37" s="25">
         <v>0</v>
@@ -10685,7 +10710,7 @@
         <v>-5</v>
       </c>
       <c r="E38" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F38" s="25">
         <v>0</v>
@@ -10707,8 +10732,8 @@
       <c r="D39" s="1">
         <v>0</v>
       </c>
-      <c r="E39" s="1">
-        <v>10</v>
+      <c r="E39" s="25">
+        <v>15</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -10730,8 +10755,8 @@
       <c r="D40" s="1">
         <v>0</v>
       </c>
-      <c r="E40" s="1">
-        <v>10</v>
+      <c r="E40" s="25">
+        <v>15</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -10753,8 +10778,8 @@
       <c r="D41" s="1">
         <v>0</v>
       </c>
-      <c r="E41" s="1">
-        <v>10</v>
+      <c r="E41" s="25">
+        <v>15</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -10776,8 +10801,8 @@
       <c r="D42" s="1">
         <v>0</v>
       </c>
-      <c r="E42" s="1">
-        <v>10</v>
+      <c r="E42" s="25">
+        <v>15</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -10799,8 +10824,8 @@
       <c r="D43" s="1">
         <v>0</v>
       </c>
-      <c r="E43" s="1">
-        <v>10</v>
+      <c r="E43" s="25">
+        <v>15</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -10822,8 +10847,8 @@
       <c r="D44" s="1">
         <v>0</v>
       </c>
-      <c r="E44" s="1">
-        <v>10</v>
+      <c r="E44" s="25">
+        <v>15</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -10845,8 +10870,8 @@
       <c r="D45" s="1">
         <v>0</v>
       </c>
-      <c r="E45" s="1">
-        <v>10</v>
+      <c r="E45" s="25">
+        <v>15</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -10869,7 +10894,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F46" s="25">
         <v>0</v>
@@ -10892,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F47" s="25">
         <v>0</v>
@@ -10915,7 +10940,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F48" s="25">
         <v>0</v>
@@ -10938,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F49" s="25">
         <v>0</v>
@@ -10961,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F50" s="25">
         <v>0</v>
@@ -10984,7 +11009,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F51" s="25">
         <v>0</v>
@@ -11007,7 +11032,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F52" s="25">
         <v>0</v>
@@ -11029,8 +11054,8 @@
       <c r="D53" s="1">
         <v>0</v>
       </c>
-      <c r="E53" s="1">
-        <v>10</v>
+      <c r="E53" s="25">
+        <v>15</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -11052,8 +11077,8 @@
       <c r="D54" s="1">
         <v>0</v>
       </c>
-      <c r="E54" s="1">
-        <v>10</v>
+      <c r="E54" s="25">
+        <v>15</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -11075,8 +11100,8 @@
       <c r="D55" s="1">
         <v>0</v>
       </c>
-      <c r="E55" s="1">
-        <v>10</v>
+      <c r="E55" s="25">
+        <v>15</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -11098,8 +11123,8 @@
       <c r="D56" s="1">
         <v>0</v>
       </c>
-      <c r="E56" s="1">
-        <v>10</v>
+      <c r="E56" s="25">
+        <v>15</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -11121,8 +11146,8 @@
       <c r="D57" s="1">
         <v>0</v>
       </c>
-      <c r="E57" s="1">
-        <v>10</v>
+      <c r="E57" s="25">
+        <v>15</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -11144,8 +11169,8 @@
       <c r="D58" s="1">
         <v>0</v>
       </c>
-      <c r="E58" s="1">
-        <v>10</v>
+      <c r="E58" s="25">
+        <v>15</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -11167,8 +11192,8 @@
       <c r="D59" s="1">
         <v>0</v>
       </c>
-      <c r="E59" s="1">
-        <v>10</v>
+      <c r="E59" s="25">
+        <v>15</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -11191,7 +11216,7 @@
         <v>5</v>
       </c>
       <c r="E60" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F60" s="25">
         <v>0</v>
@@ -11214,7 +11239,7 @@
         <v>5</v>
       </c>
       <c r="E61" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F61" s="25">
         <v>0</v>
@@ -11237,7 +11262,7 @@
         <v>5</v>
       </c>
       <c r="E62" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F62" s="25">
         <v>0</v>
@@ -11260,7 +11285,7 @@
         <v>5</v>
       </c>
       <c r="E63" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F63" s="25">
         <v>0</v>
@@ -11283,7 +11308,7 @@
         <v>5</v>
       </c>
       <c r="E64" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F64" s="25">
         <v>0</v>
@@ -11306,7 +11331,7 @@
         <v>5</v>
       </c>
       <c r="E65" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F65" s="25">
         <v>0</v>
@@ -11329,7 +11354,7 @@
         <v>5</v>
       </c>
       <c r="E66" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F66" s="25">
         <v>0</v>
@@ -11351,8 +11376,8 @@
       <c r="D67" s="1">
         <v>5</v>
       </c>
-      <c r="E67" s="1">
-        <v>10</v>
+      <c r="E67" s="25">
+        <v>15</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -11374,8 +11399,8 @@
       <c r="D68" s="1">
         <v>5</v>
       </c>
-      <c r="E68" s="1">
-        <v>10</v>
+      <c r="E68" s="25">
+        <v>15</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -11397,8 +11422,8 @@
       <c r="D69" s="1">
         <v>5</v>
       </c>
-      <c r="E69" s="1">
-        <v>10</v>
+      <c r="E69" s="25">
+        <v>15</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -11420,8 +11445,8 @@
       <c r="D70" s="1">
         <v>5</v>
       </c>
-      <c r="E70" s="1">
-        <v>10</v>
+      <c r="E70" s="25">
+        <v>15</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -11443,8 +11468,8 @@
       <c r="D71" s="1">
         <v>5</v>
       </c>
-      <c r="E71" s="1">
-        <v>10</v>
+      <c r="E71" s="25">
+        <v>15</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -11466,8 +11491,8 @@
       <c r="D72" s="1">
         <v>5</v>
       </c>
-      <c r="E72" s="1">
-        <v>10</v>
+      <c r="E72" s="25">
+        <v>15</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -11489,8 +11514,8 @@
       <c r="D73" s="1">
         <v>5</v>
       </c>
-      <c r="E73" s="1">
-        <v>10</v>
+      <c r="E73" s="25">
+        <v>15</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -11513,7 +11538,7 @@
         <v>20</v>
       </c>
       <c r="E74" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F74" s="25">
         <v>1</v>
@@ -11539,7 +11564,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F75" s="25">
         <v>0</v>
@@ -11565,7 +11590,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F76" s="25">
         <v>0</v>
@@ -11591,7 +11616,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F77" s="25">
         <v>0</v>
@@ -11617,7 +11642,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F78" s="25">
         <v>0</v>
@@ -11643,7 +11668,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F79" s="25">
         <v>0</v>
@@ -11669,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F80" s="25">
         <v>0</v>
@@ -11694,8 +11719,8 @@
       <c r="D81" s="1">
         <v>0</v>
       </c>
-      <c r="E81" s="1">
-        <v>10</v>
+      <c r="E81" s="25">
+        <v>15</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -11720,8 +11745,8 @@
       <c r="D82" s="1">
         <v>20</v>
       </c>
-      <c r="E82" s="1">
-        <v>10</v>
+      <c r="E82" s="25">
+        <v>15</v>
       </c>
       <c r="F82" s="1">
         <v>1</v>
@@ -11746,8 +11771,8 @@
       <c r="D83" s="1">
         <v>0</v>
       </c>
-      <c r="E83" s="1">
-        <v>10</v>
+      <c r="E83" s="25">
+        <v>15</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -11772,8 +11797,8 @@
       <c r="D84" s="1">
         <v>0</v>
       </c>
-      <c r="E84" s="1">
-        <v>10</v>
+      <c r="E84" s="25">
+        <v>15</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
@@ -11798,8 +11823,8 @@
       <c r="D85" s="1">
         <v>0</v>
       </c>
-      <c r="E85" s="1">
-        <v>10</v>
+      <c r="E85" s="25">
+        <v>15</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
@@ -11824,8 +11849,8 @@
       <c r="D86" s="1">
         <v>0</v>
       </c>
-      <c r="E86" s="1">
-        <v>10</v>
+      <c r="E86" s="25">
+        <v>15</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -11850,8 +11875,8 @@
       <c r="D87" s="1">
         <v>0</v>
       </c>
-      <c r="E87" s="1">
-        <v>10</v>
+      <c r="E87" s="25">
+        <v>15</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
@@ -11877,7 +11902,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F88" s="25">
         <v>0</v>
@@ -11903,7 +11928,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F89" s="25">
         <v>0</v>
@@ -11929,7 +11954,7 @@
         <v>20</v>
       </c>
       <c r="E90" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F90" s="25">
         <v>1</v>
@@ -11955,7 +11980,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F91" s="25">
         <v>0</v>
@@ -11981,7 +12006,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F92" s="25">
         <v>0</v>
@@ -12007,7 +12032,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F93" s="25">
         <v>0</v>
@@ -12033,7 +12058,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F94" s="25">
         <v>0</v>
@@ -12058,8 +12083,8 @@
       <c r="D95" s="1">
         <v>0</v>
       </c>
-      <c r="E95" s="1">
-        <v>10</v>
+      <c r="E95" s="25">
+        <v>15</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
@@ -12084,8 +12109,8 @@
       <c r="D96" s="1">
         <v>0</v>
       </c>
-      <c r="E96" s="1">
-        <v>10</v>
+      <c r="E96" s="25">
+        <v>15</v>
       </c>
       <c r="F96" s="1">
         <v>0</v>
@@ -12110,8 +12135,8 @@
       <c r="D97" s="1">
         <v>0</v>
       </c>
-      <c r="E97" s="1">
-        <v>10</v>
+      <c r="E97" s="25">
+        <v>15</v>
       </c>
       <c r="F97" s="1">
         <v>0</v>
@@ -12136,8 +12161,8 @@
       <c r="D98" s="1">
         <v>20</v>
       </c>
-      <c r="E98" s="1">
-        <v>10</v>
+      <c r="E98" s="25">
+        <v>15</v>
       </c>
       <c r="F98" s="1">
         <v>1</v>
@@ -12162,8 +12187,8 @@
       <c r="D99" s="1">
         <v>0</v>
       </c>
-      <c r="E99" s="1">
-        <v>10</v>
+      <c r="E99" s="25">
+        <v>15</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
@@ -12188,8 +12213,8 @@
       <c r="D100" s="1">
         <v>0</v>
       </c>
-      <c r="E100" s="1">
-        <v>10</v>
+      <c r="E100" s="25">
+        <v>15</v>
       </c>
       <c r="F100" s="1">
         <v>0</v>
@@ -12214,8 +12239,8 @@
       <c r="D101" s="1">
         <v>0</v>
       </c>
-      <c r="E101" s="1">
-        <v>10</v>
+      <c r="E101" s="25">
+        <v>15</v>
       </c>
       <c r="F101" s="1">
         <v>0</v>
@@ -12241,7 +12266,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F102" s="25">
         <v>0</v>
@@ -12267,7 +12292,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F103" s="25">
         <v>0</v>
@@ -12293,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F104" s="25">
         <v>0</v>
@@ -12319,7 +12344,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F105" s="25">
         <v>0</v>
@@ -12345,7 +12370,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F106" s="25">
         <v>0</v>
@@ -12371,7 +12396,7 @@
         <v>20</v>
       </c>
       <c r="E107" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F107" s="25">
         <v>1</v>
@@ -12397,7 +12422,7 @@
         <v>0</v>
       </c>
       <c r="E108" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F108" s="25">
         <v>0</v>
@@ -12422,8 +12447,8 @@
       <c r="D109" s="1">
         <v>0</v>
       </c>
-      <c r="E109" s="1">
-        <v>10</v>
+      <c r="E109" s="25">
+        <v>15</v>
       </c>
       <c r="F109" s="1">
         <v>0</v>
@@ -12448,8 +12473,8 @@
       <c r="D110" s="1">
         <v>0</v>
       </c>
-      <c r="E110" s="1">
-        <v>10</v>
+      <c r="E110" s="25">
+        <v>15</v>
       </c>
       <c r="F110" s="1">
         <v>0</v>
@@ -12474,8 +12499,8 @@
       <c r="D111" s="1">
         <v>0</v>
       </c>
-      <c r="E111" s="1">
-        <v>10</v>
+      <c r="E111" s="25">
+        <v>15</v>
       </c>
       <c r="F111" s="1">
         <v>0</v>
@@ -12500,8 +12525,8 @@
       <c r="D112" s="1">
         <v>0</v>
       </c>
-      <c r="E112" s="1">
-        <v>10</v>
+      <c r="E112" s="25">
+        <v>15</v>
       </c>
       <c r="F112" s="1">
         <v>0</v>
@@ -12526,8 +12551,8 @@
       <c r="D113" s="1">
         <v>0</v>
       </c>
-      <c r="E113" s="1">
-        <v>10</v>
+      <c r="E113" s="25">
+        <v>15</v>
       </c>
       <c r="F113" s="1">
         <v>0</v>
@@ -12552,8 +12577,8 @@
       <c r="D114" s="1">
         <v>20</v>
       </c>
-      <c r="E114" s="1">
-        <v>10</v>
+      <c r="E114" s="25">
+        <v>15</v>
       </c>
       <c r="F114" s="1">
         <v>1</v>
@@ -12578,8 +12603,8 @@
       <c r="D115" s="1">
         <v>0</v>
       </c>
-      <c r="E115" s="1">
-        <v>10</v>
+      <c r="E115" s="25">
+        <v>15</v>
       </c>
       <c r="F115" s="1">
         <v>0</v>
@@ -12605,7 +12630,7 @@
         <v>-20</v>
       </c>
       <c r="E116" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F116" s="25">
         <v>0</v>
@@ -12631,7 +12656,7 @@
         <v>0</v>
       </c>
       <c r="E117" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F117" s="25">
         <v>0</v>
@@ -12657,7 +12682,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F118" s="25">
         <v>0</v>
@@ -12683,7 +12708,7 @@
         <v>0</v>
       </c>
       <c r="E119" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F119" s="25">
         <v>0</v>
@@ -12709,7 +12734,7 @@
         <v>0</v>
       </c>
       <c r="E120" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F120" s="25">
         <v>0</v>
@@ -12735,7 +12760,7 @@
         <v>0</v>
       </c>
       <c r="E121" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F121" s="25">
         <v>0</v>
@@ -12761,7 +12786,7 @@
         <v>0</v>
       </c>
       <c r="E122" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F122" s="25">
         <v>0</v>
@@ -12786,8 +12811,8 @@
       <c r="D123" s="1">
         <v>0</v>
       </c>
-      <c r="E123" s="1">
-        <v>10</v>
+      <c r="E123" s="25">
+        <v>15</v>
       </c>
       <c r="F123" s="1">
         <v>0</v>
@@ -12812,8 +12837,8 @@
       <c r="D124" s="1">
         <v>-20</v>
       </c>
-      <c r="E124" s="1">
-        <v>10</v>
+      <c r="E124" s="25">
+        <v>15</v>
       </c>
       <c r="F124" s="1">
         <v>0</v>
@@ -12838,8 +12863,8 @@
       <c r="D125" s="1">
         <v>0</v>
       </c>
-      <c r="E125" s="1">
-        <v>10</v>
+      <c r="E125" s="25">
+        <v>15</v>
       </c>
       <c r="F125" s="1">
         <v>0</v>
@@ -12864,8 +12889,8 @@
       <c r="D126" s="1">
         <v>0</v>
       </c>
-      <c r="E126" s="1">
-        <v>10</v>
+      <c r="E126" s="25">
+        <v>15</v>
       </c>
       <c r="F126" s="1">
         <v>0</v>
@@ -12890,8 +12915,8 @@
       <c r="D127" s="1">
         <v>0</v>
       </c>
-      <c r="E127" s="1">
-        <v>10</v>
+      <c r="E127" s="25">
+        <v>15</v>
       </c>
       <c r="F127" s="1">
         <v>0</v>
@@ -12916,8 +12941,8 @@
       <c r="D128" s="1">
         <v>0</v>
       </c>
-      <c r="E128" s="1">
-        <v>10</v>
+      <c r="E128" s="25">
+        <v>15</v>
       </c>
       <c r="F128" s="1">
         <v>0</v>
@@ -12942,8 +12967,8 @@
       <c r="D129" s="1">
         <v>0</v>
       </c>
-      <c r="E129" s="1">
-        <v>10</v>
+      <c r="E129" s="25">
+        <v>15</v>
       </c>
       <c r="F129" s="1">
         <v>0</v>
@@ -12969,7 +12994,7 @@
         <v>0</v>
       </c>
       <c r="E130" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F130" s="25">
         <v>0</v>
@@ -12995,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="E131" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F131" s="25">
         <v>0</v>
@@ -13021,7 +13046,7 @@
         <v>-20</v>
       </c>
       <c r="E132" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F132" s="25">
         <v>0</v>
@@ -13047,7 +13072,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F133" s="25">
         <v>0</v>
@@ -13073,7 +13098,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F134" s="25">
         <v>0</v>
@@ -13099,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F135" s="25">
         <v>0</v>
@@ -13125,7 +13150,7 @@
         <v>0</v>
       </c>
       <c r="E136" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F136" s="25">
         <v>0</v>
@@ -13150,8 +13175,8 @@
       <c r="D137" s="1">
         <v>0</v>
       </c>
-      <c r="E137" s="1">
-        <v>10</v>
+      <c r="E137" s="25">
+        <v>15</v>
       </c>
       <c r="F137" s="1">
         <v>0</v>
@@ -13176,8 +13201,8 @@
       <c r="D138" s="1">
         <v>0</v>
       </c>
-      <c r="E138" s="1">
-        <v>10</v>
+      <c r="E138" s="25">
+        <v>15</v>
       </c>
       <c r="F138" s="1">
         <v>0</v>
@@ -13202,8 +13227,8 @@
       <c r="D139" s="1">
         <v>0</v>
       </c>
-      <c r="E139" s="1">
-        <v>10</v>
+      <c r="E139" s="25">
+        <v>15</v>
       </c>
       <c r="F139" s="1">
         <v>0</v>
@@ -13228,8 +13253,8 @@
       <c r="D140" s="1">
         <v>-20</v>
       </c>
-      <c r="E140" s="1">
-        <v>10</v>
+      <c r="E140" s="25">
+        <v>15</v>
       </c>
       <c r="F140" s="1">
         <v>0</v>
@@ -13254,8 +13279,8 @@
       <c r="D141" s="1">
         <v>0</v>
       </c>
-      <c r="E141" s="1">
-        <v>10</v>
+      <c r="E141" s="25">
+        <v>15</v>
       </c>
       <c r="F141" s="1">
         <v>0</v>
@@ -13280,8 +13305,8 @@
       <c r="D142" s="1">
         <v>0</v>
       </c>
-      <c r="E142" s="1">
-        <v>10</v>
+      <c r="E142" s="25">
+        <v>15</v>
       </c>
       <c r="F142" s="1">
         <v>0</v>
@@ -13306,8 +13331,8 @@
       <c r="D143" s="1">
         <v>0</v>
       </c>
-      <c r="E143" s="1">
-        <v>10</v>
+      <c r="E143" s="25">
+        <v>15</v>
       </c>
       <c r="F143" s="1">
         <v>0</v>
@@ -13333,7 +13358,7 @@
         <v>0</v>
       </c>
       <c r="E144" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F144" s="25">
         <v>0</v>
@@ -13359,7 +13384,7 @@
         <v>0</v>
       </c>
       <c r="E145" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F145" s="25">
         <v>0</v>
@@ -13385,7 +13410,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F146" s="25">
         <v>0</v>
@@ -13411,7 +13436,7 @@
         <v>0</v>
       </c>
       <c r="E147" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F147" s="25">
         <v>0</v>
@@ -13437,7 +13462,7 @@
         <v>-20</v>
       </c>
       <c r="E148" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F148" s="25">
         <v>1</v>
@@ -13463,7 +13488,7 @@
         <v>0</v>
       </c>
       <c r="E149" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F149" s="25">
         <v>0</v>
@@ -13489,7 +13514,7 @@
         <v>0</v>
       </c>
       <c r="E150" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F150" s="25">
         <v>0</v>
@@ -13514,8 +13539,8 @@
       <c r="D151" s="1">
         <v>0</v>
       </c>
-      <c r="E151" s="1">
-        <v>10</v>
+      <c r="E151" s="25">
+        <v>15</v>
       </c>
       <c r="F151" s="1">
         <v>0</v>
@@ -13540,8 +13565,8 @@
       <c r="D152" s="1">
         <v>0</v>
       </c>
-      <c r="E152" s="1">
-        <v>10</v>
+      <c r="E152" s="25">
+        <v>15</v>
       </c>
       <c r="F152" s="1">
         <v>0</v>
@@ -13566,8 +13591,8 @@
       <c r="D153" s="1">
         <v>0</v>
       </c>
-      <c r="E153" s="1">
-        <v>10</v>
+      <c r="E153" s="25">
+        <v>15</v>
       </c>
       <c r="F153" s="1">
         <v>0</v>
@@ -13592,8 +13617,8 @@
       <c r="D154" s="1">
         <v>0</v>
       </c>
-      <c r="E154" s="1">
-        <v>10</v>
+      <c r="E154" s="25">
+        <v>15</v>
       </c>
       <c r="F154" s="1">
         <v>0</v>
@@ -13618,8 +13643,8 @@
       <c r="D155" s="1">
         <v>0</v>
       </c>
-      <c r="E155" s="1">
-        <v>10</v>
+      <c r="E155" s="25">
+        <v>15</v>
       </c>
       <c r="F155" s="1">
         <v>0</v>
@@ -13644,8 +13669,8 @@
       <c r="D156" s="1">
         <v>-20</v>
       </c>
-      <c r="E156" s="1">
-        <v>10</v>
+      <c r="E156" s="25">
+        <v>15</v>
       </c>
       <c r="F156" s="1">
         <v>1</v>
@@ -13670,8 +13695,8 @@
       <c r="D157" s="1">
         <v>0</v>
       </c>
-      <c r="E157" s="1">
-        <v>10</v>
+      <c r="E157" s="25">
+        <v>15</v>
       </c>
       <c r="F157" s="1">
         <v>0</v>
@@ -13697,7 +13722,7 @@
         <v>0</v>
       </c>
       <c r="E158" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F158" s="25">
         <v>1</v>
@@ -13723,7 +13748,7 @@
         <v>10</v>
       </c>
       <c r="E159" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F159" s="25">
         <v>0</v>
@@ -13749,7 +13774,7 @@
         <v>10</v>
       </c>
       <c r="E160" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F160" s="25">
         <v>0</v>
@@ -13775,7 +13800,7 @@
         <v>10</v>
       </c>
       <c r="E161" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F161" s="25">
         <v>0</v>
@@ -13801,7 +13826,7 @@
         <v>10</v>
       </c>
       <c r="E162" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F162" s="25">
         <v>0</v>
@@ -13827,7 +13852,7 @@
         <v>10</v>
       </c>
       <c r="E163" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F163" s="25">
         <v>0</v>
@@ -13853,7 +13878,7 @@
         <v>10</v>
       </c>
       <c r="E164" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F164" s="25">
         <v>0</v>
@@ -13878,8 +13903,8 @@
       <c r="D165" s="1">
         <v>10</v>
       </c>
-      <c r="E165" s="1">
-        <v>10</v>
+      <c r="E165" s="25">
+        <v>15</v>
       </c>
       <c r="F165" s="1">
         <v>0</v>
@@ -13904,8 +13929,8 @@
       <c r="D166" s="1">
         <v>0</v>
       </c>
-      <c r="E166" s="1">
-        <v>10</v>
+      <c r="E166" s="25">
+        <v>15</v>
       </c>
       <c r="F166" s="1">
         <v>1</v>
@@ -13930,8 +13955,8 @@
       <c r="D167" s="1">
         <v>10</v>
       </c>
-      <c r="E167" s="1">
-        <v>10</v>
+      <c r="E167" s="25">
+        <v>15</v>
       </c>
       <c r="F167" s="1">
         <v>0</v>
@@ -13956,8 +13981,8 @@
       <c r="D168" s="1">
         <v>10</v>
       </c>
-      <c r="E168" s="1">
-        <v>10</v>
+      <c r="E168" s="25">
+        <v>15</v>
       </c>
       <c r="F168" s="1">
         <v>0</v>
@@ -13982,8 +14007,8 @@
       <c r="D169" s="1">
         <v>10</v>
       </c>
-      <c r="E169" s="1">
-        <v>10</v>
+      <c r="E169" s="25">
+        <v>15</v>
       </c>
       <c r="F169" s="1">
         <v>0</v>
@@ -14008,8 +14033,8 @@
       <c r="D170" s="1">
         <v>10</v>
       </c>
-      <c r="E170" s="1">
-        <v>10</v>
+      <c r="E170" s="25">
+        <v>15</v>
       </c>
       <c r="F170" s="1">
         <v>0</v>
@@ -14034,8 +14059,8 @@
       <c r="D171" s="1">
         <v>10</v>
       </c>
-      <c r="E171" s="1">
-        <v>10</v>
+      <c r="E171" s="25">
+        <v>15</v>
       </c>
       <c r="F171" s="1">
         <v>0</v>
@@ -14061,7 +14086,7 @@
         <v>10</v>
       </c>
       <c r="E172" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F172" s="25">
         <v>0</v>
@@ -14087,7 +14112,7 @@
         <v>10</v>
       </c>
       <c r="E173" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F173" s="25">
         <v>0</v>
@@ -14113,7 +14138,7 @@
         <v>10</v>
       </c>
       <c r="E174" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F174" s="25">
         <v>0</v>
@@ -14139,7 +14164,7 @@
         <v>0</v>
       </c>
       <c r="E175" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F175" s="25">
         <v>1</v>
@@ -14165,7 +14190,7 @@
         <v>10</v>
       </c>
       <c r="E176" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F176" s="25">
         <v>0</v>
@@ -14191,7 +14216,7 @@
         <v>10</v>
       </c>
       <c r="E177" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F177" s="25">
         <v>0</v>
@@ -14217,7 +14242,7 @@
         <v>10</v>
       </c>
       <c r="E178" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F178" s="25">
         <v>0</v>
@@ -14242,8 +14267,8 @@
       <c r="D179" s="1">
         <v>10</v>
       </c>
-      <c r="E179" s="1">
-        <v>10</v>
+      <c r="E179" s="25">
+        <v>15</v>
       </c>
       <c r="F179" s="1">
         <v>0</v>
@@ -14268,8 +14293,8 @@
       <c r="D180" s="1">
         <v>10</v>
       </c>
-      <c r="E180" s="1">
-        <v>10</v>
+      <c r="E180" s="25">
+        <v>15</v>
       </c>
       <c r="F180" s="1">
         <v>0</v>
@@ -14294,8 +14319,8 @@
       <c r="D181" s="1">
         <v>0</v>
       </c>
-      <c r="E181" s="1">
-        <v>10</v>
+      <c r="E181" s="25">
+        <v>15</v>
       </c>
       <c r="F181" s="1">
         <v>1</v>
@@ -14320,8 +14345,8 @@
       <c r="D182" s="1">
         <v>10</v>
       </c>
-      <c r="E182" s="1">
-        <v>10</v>
+      <c r="E182" s="25">
+        <v>15</v>
       </c>
       <c r="F182" s="1">
         <v>0</v>
@@ -14346,8 +14371,8 @@
       <c r="D183" s="1">
         <v>10</v>
       </c>
-      <c r="E183" s="1">
-        <v>10</v>
+      <c r="E183" s="25">
+        <v>15</v>
       </c>
       <c r="F183" s="1">
         <v>0</v>
@@ -14372,8 +14397,8 @@
       <c r="D184" s="1">
         <v>10</v>
       </c>
-      <c r="E184" s="1">
-        <v>10</v>
+      <c r="E184" s="25">
+        <v>15</v>
       </c>
       <c r="F184" s="1">
         <v>0</v>
@@ -14398,8 +14423,8 @@
       <c r="D185" s="1">
         <v>10</v>
       </c>
-      <c r="E185" s="1">
-        <v>10</v>
+      <c r="E185" s="25">
+        <v>15</v>
       </c>
       <c r="F185" s="1">
         <v>0</v>
@@ -14425,7 +14450,7 @@
         <v>-10</v>
       </c>
       <c r="E186" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F186" s="25">
         <v>0</v>
@@ -14451,7 +14476,7 @@
         <v>-10</v>
       </c>
       <c r="E187" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F187" s="25">
         <v>0</v>
@@ -14477,7 +14502,7 @@
         <v>-10</v>
       </c>
       <c r="E188" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F188" s="25">
         <v>0</v>
@@ -14503,7 +14528,7 @@
         <v>0</v>
       </c>
       <c r="E189" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F189" s="25">
         <v>1</v>
@@ -14529,7 +14554,7 @@
         <v>-10</v>
       </c>
       <c r="E190" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F190" s="25">
         <v>0</v>
@@ -14555,7 +14580,7 @@
         <v>-10</v>
       </c>
       <c r="E191" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F191" s="25">
         <v>0</v>
@@ -14581,7 +14606,7 @@
         <v>-10</v>
       </c>
       <c r="E192" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F192" s="25">
         <v>0</v>
@@ -14606,8 +14631,8 @@
       <c r="D193" s="1">
         <v>-10</v>
       </c>
-      <c r="E193" s="1">
-        <v>10</v>
+      <c r="E193" s="25">
+        <v>15</v>
       </c>
       <c r="F193" s="1">
         <v>0</v>
@@ -14632,8 +14657,8 @@
       <c r="D194" s="1">
         <v>-10</v>
       </c>
-      <c r="E194" s="1">
-        <v>10</v>
+      <c r="E194" s="25">
+        <v>15</v>
       </c>
       <c r="F194" s="1">
         <v>0</v>
@@ -14658,8 +14683,8 @@
       <c r="D195" s="1">
         <v>-10</v>
       </c>
-      <c r="E195" s="1">
-        <v>10</v>
+      <c r="E195" s="25">
+        <v>15</v>
       </c>
       <c r="F195" s="1">
         <v>0</v>
@@ -14684,8 +14709,8 @@
       <c r="D196" s="1">
         <v>-10</v>
       </c>
-      <c r="E196" s="1">
-        <v>10</v>
+      <c r="E196" s="25">
+        <v>15</v>
       </c>
       <c r="F196" s="1">
         <v>0</v>
@@ -14710,8 +14735,8 @@
       <c r="D197" s="1">
         <v>-10</v>
       </c>
-      <c r="E197" s="1">
-        <v>10</v>
+      <c r="E197" s="25">
+        <v>15</v>
       </c>
       <c r="F197" s="1">
         <v>0</v>
@@ -14736,8 +14761,8 @@
       <c r="D198" s="1">
         <v>0</v>
       </c>
-      <c r="E198" s="1">
-        <v>10</v>
+      <c r="E198" s="25">
+        <v>15</v>
       </c>
       <c r="F198" s="1">
         <v>1</v>
@@ -14762,8 +14787,8 @@
       <c r="D199" s="1">
         <v>-10</v>
       </c>
-      <c r="E199" s="1">
-        <v>10</v>
+      <c r="E199" s="25">
+        <v>15</v>
       </c>
       <c r="F199" s="1">
         <v>0</v>
@@ -14789,7 +14814,7 @@
         <v>-10</v>
       </c>
       <c r="E200" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F200" s="25">
         <v>0</v>
@@ -14815,7 +14840,7 @@
         <v>-10</v>
       </c>
       <c r="E201" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F201" s="25">
         <v>0</v>
@@ -14841,7 +14866,7 @@
         <v>-10</v>
       </c>
       <c r="E202" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F202" s="25">
         <v>0</v>
@@ -14867,7 +14892,7 @@
         <v>-10</v>
       </c>
       <c r="E203" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F203" s="25">
         <v>0</v>
@@ -14893,7 +14918,7 @@
         <v>0</v>
       </c>
       <c r="E204" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F204" s="25">
         <v>1</v>
@@ -14919,7 +14944,7 @@
         <v>-10</v>
       </c>
       <c r="E205" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F205" s="25">
         <v>0</v>
@@ -14945,7 +14970,7 @@
         <v>-10</v>
       </c>
       <c r="E206" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F206" s="25">
         <v>0</v>
@@ -14970,8 +14995,8 @@
       <c r="D207" s="1">
         <v>-10</v>
       </c>
-      <c r="E207" s="1">
-        <v>10</v>
+      <c r="E207" s="25">
+        <v>15</v>
       </c>
       <c r="F207" s="1">
         <v>0</v>
@@ -14996,8 +15021,8 @@
       <c r="D208" s="1">
         <v>-10</v>
       </c>
-      <c r="E208" s="1">
-        <v>10</v>
+      <c r="E208" s="25">
+        <v>15</v>
       </c>
       <c r="F208" s="1">
         <v>0</v>
@@ -15022,8 +15047,8 @@
       <c r="D209" s="1">
         <v>-10</v>
       </c>
-      <c r="E209" s="1">
-        <v>10</v>
+      <c r="E209" s="25">
+        <v>15</v>
       </c>
       <c r="F209" s="1">
         <v>0</v>
@@ -15048,8 +15073,8 @@
       <c r="D210" s="1">
         <v>-10</v>
       </c>
-      <c r="E210" s="1">
-        <v>10</v>
+      <c r="E210" s="25">
+        <v>15</v>
       </c>
       <c r="F210" s="1">
         <v>0</v>
@@ -15074,8 +15099,8 @@
       <c r="D211" s="1">
         <v>0</v>
       </c>
-      <c r="E211" s="1">
-        <v>10</v>
+      <c r="E211" s="25">
+        <v>15</v>
       </c>
       <c r="F211" s="1">
         <v>1</v>
@@ -15100,8 +15125,8 @@
       <c r="D212" s="1">
         <v>-10</v>
       </c>
-      <c r="E212" s="1">
-        <v>10</v>
+      <c r="E212" s="25">
+        <v>15</v>
       </c>
       <c r="F212" s="1">
         <v>0</v>
@@ -15126,8 +15151,8 @@
       <c r="D213" s="1">
         <v>-10</v>
       </c>
-      <c r="E213" s="1">
-        <v>10</v>
+      <c r="E213" s="25">
+        <v>15</v>
       </c>
       <c r="F213" s="1">
         <v>0</v>
@@ -15153,7 +15178,7 @@
         <v>-5</v>
       </c>
       <c r="E214" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F214" s="25">
         <v>1</v>
@@ -15179,7 +15204,7 @@
         <v>0</v>
       </c>
       <c r="E215" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F215" s="25">
         <v>0</v>
@@ -15205,7 +15230,7 @@
         <v>-5</v>
       </c>
       <c r="E216" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F216" s="25">
         <v>1</v>
@@ -15231,7 +15256,7 @@
         <v>0</v>
       </c>
       <c r="E217" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F217" s="25">
         <v>0</v>
@@ -15257,7 +15282,7 @@
         <v>0</v>
       </c>
       <c r="E218" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F218" s="25">
         <v>0</v>
@@ -15283,7 +15308,7 @@
         <v>0</v>
       </c>
       <c r="E219" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F219" s="25">
         <v>0</v>
@@ -15309,7 +15334,7 @@
         <v>0</v>
       </c>
       <c r="E220" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F220" s="25">
         <v>0</v>
@@ -15334,8 +15359,8 @@
       <c r="D221" s="1">
         <v>0</v>
       </c>
-      <c r="E221" s="1">
-        <v>10</v>
+      <c r="E221" s="25">
+        <v>15</v>
       </c>
       <c r="F221" s="1">
         <v>0</v>
@@ -15360,8 +15385,8 @@
       <c r="D222" s="1">
         <v>-5</v>
       </c>
-      <c r="E222" s="1">
-        <v>10</v>
+      <c r="E222" s="25">
+        <v>15</v>
       </c>
       <c r="F222" s="1">
         <v>1</v>
@@ -15386,8 +15411,8 @@
       <c r="D223" s="1">
         <v>0</v>
       </c>
-      <c r="E223" s="1">
-        <v>10</v>
+      <c r="E223" s="25">
+        <v>15</v>
       </c>
       <c r="F223" s="1">
         <v>0</v>
@@ -15412,8 +15437,8 @@
       <c r="D224" s="1">
         <v>-5</v>
       </c>
-      <c r="E224" s="1">
-        <v>10</v>
+      <c r="E224" s="25">
+        <v>15</v>
       </c>
       <c r="F224" s="1">
         <v>1</v>
@@ -15438,8 +15463,8 @@
       <c r="D225" s="1">
         <v>0</v>
       </c>
-      <c r="E225" s="1">
-        <v>10</v>
+      <c r="E225" s="25">
+        <v>15</v>
       </c>
       <c r="F225" s="1">
         <v>0</v>
@@ -15464,8 +15489,8 @@
       <c r="D226" s="1">
         <v>0</v>
       </c>
-      <c r="E226" s="1">
-        <v>10</v>
+      <c r="E226" s="25">
+        <v>15</v>
       </c>
       <c r="F226" s="1">
         <v>0</v>
@@ -15490,8 +15515,8 @@
       <c r="D227" s="1">
         <v>0</v>
       </c>
-      <c r="E227" s="1">
-        <v>10</v>
+      <c r="E227" s="25">
+        <v>15</v>
       </c>
       <c r="F227" s="1">
         <v>0</v>
@@ -15517,7 +15542,7 @@
         <v>-5</v>
       </c>
       <c r="E228" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F228" s="25">
         <v>0</v>
@@ -15543,7 +15568,7 @@
         <v>0</v>
       </c>
       <c r="E229" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F229" s="25">
         <v>0</v>
@@ -15569,7 +15594,7 @@
         <v>-5</v>
       </c>
       <c r="E230" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F230" s="25">
         <v>0</v>
@@ -15595,7 +15620,7 @@
         <v>0</v>
       </c>
       <c r="E231" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F231" s="25">
         <v>1</v>
@@ -15621,7 +15646,7 @@
         <v>0</v>
       </c>
       <c r="E232" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F232" s="25">
         <v>0</v>
@@ -15647,7 +15672,7 @@
         <v>0</v>
       </c>
       <c r="E233" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F233" s="25">
         <v>0</v>
@@ -15673,7 +15698,7 @@
         <v>0</v>
       </c>
       <c r="E234" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F234" s="25">
         <v>0</v>
@@ -15698,8 +15723,8 @@
       <c r="D235" s="1">
         <v>0</v>
       </c>
-      <c r="E235" s="1">
-        <v>10</v>
+      <c r="E235" s="25">
+        <v>15</v>
       </c>
       <c r="F235" s="1">
         <v>0</v>
@@ -15724,8 +15749,8 @@
       <c r="D236" s="1">
         <v>-5</v>
       </c>
-      <c r="E236" s="1">
-        <v>10</v>
+      <c r="E236" s="25">
+        <v>15</v>
       </c>
       <c r="F236" s="1">
         <v>1</v>
@@ -15750,8 +15775,8 @@
       <c r="D237" s="1">
         <v>0</v>
       </c>
-      <c r="E237" s="1">
-        <v>10</v>
+      <c r="E237" s="25">
+        <v>15</v>
       </c>
       <c r="F237" s="1">
         <v>0</v>
@@ -15776,8 +15801,8 @@
       <c r="D238" s="1">
         <v>-5</v>
       </c>
-      <c r="E238" s="1">
-        <v>10</v>
+      <c r="E238" s="25">
+        <v>15</v>
       </c>
       <c r="F238" s="1">
         <v>1</v>
@@ -15802,8 +15827,8 @@
       <c r="D239" s="1">
         <v>0</v>
       </c>
-      <c r="E239" s="1">
-        <v>10</v>
+      <c r="E239" s="25">
+        <v>15</v>
       </c>
       <c r="F239" s="1">
         <v>0</v>
@@ -15828,8 +15853,8 @@
       <c r="D240" s="1">
         <v>0</v>
       </c>
-      <c r="E240" s="1">
-        <v>10</v>
+      <c r="E240" s="25">
+        <v>15</v>
       </c>
       <c r="F240" s="1">
         <v>0</v>
@@ -15854,8 +15879,8 @@
       <c r="D241" s="1">
         <v>0</v>
       </c>
-      <c r="E241" s="1">
-        <v>10</v>
+      <c r="E241" s="25">
+        <v>15</v>
       </c>
       <c r="F241" s="1">
         <v>0</v>
@@ -15881,7 +15906,7 @@
         <v>0</v>
       </c>
       <c r="E242" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F242" s="25">
         <v>0</v>
@@ -15907,7 +15932,7 @@
         <v>0</v>
       </c>
       <c r="E243" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F243" s="25">
         <v>1</v>
@@ -15933,7 +15958,7 @@
         <v>0</v>
       </c>
       <c r="E244" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F244" s="25">
         <v>0</v>
@@ -15959,7 +15984,7 @@
         <v>0</v>
       </c>
       <c r="E245" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F245" s="25">
         <v>0</v>
@@ -15985,7 +16010,7 @@
         <v>-5</v>
       </c>
       <c r="E246" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F246" s="25">
         <v>1</v>
@@ -16011,7 +16036,7 @@
         <v>0</v>
       </c>
       <c r="E247" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F247" s="25">
         <v>0</v>
@@ -16037,7 +16062,7 @@
         <v>-5</v>
       </c>
       <c r="E248" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F248" s="25">
         <v>1</v>
@@ -16062,8 +16087,8 @@
       <c r="D249" s="1">
         <v>0</v>
       </c>
-      <c r="E249" s="1">
-        <v>10</v>
+      <c r="E249" s="25">
+        <v>15</v>
       </c>
       <c r="F249" s="1">
         <v>1</v>
@@ -16088,8 +16113,8 @@
       <c r="D250" s="1">
         <v>0</v>
       </c>
-      <c r="E250" s="1">
-        <v>10</v>
+      <c r="E250" s="25">
+        <v>15</v>
       </c>
       <c r="F250" s="1">
         <v>0</v>
@@ -16114,8 +16139,8 @@
       <c r="D251" s="1">
         <v>0</v>
       </c>
-      <c r="E251" s="1">
-        <v>10</v>
+      <c r="E251" s="25">
+        <v>15</v>
       </c>
       <c r="F251" s="1">
         <v>0</v>
@@ -16140,8 +16165,8 @@
       <c r="D252" s="1">
         <v>0</v>
       </c>
-      <c r="E252" s="1">
-        <v>10</v>
+      <c r="E252" s="25">
+        <v>15</v>
       </c>
       <c r="F252" s="1">
         <v>1</v>
@@ -16166,8 +16191,8 @@
       <c r="D253" s="1">
         <v>0</v>
       </c>
-      <c r="E253" s="1">
-        <v>10</v>
+      <c r="E253" s="25">
+        <v>15</v>
       </c>
       <c r="F253" s="1">
         <v>0</v>
@@ -16192,8 +16217,8 @@
       <c r="D254" s="1">
         <v>0</v>
       </c>
-      <c r="E254" s="1">
-        <v>10</v>
+      <c r="E254" s="25">
+        <v>15</v>
       </c>
       <c r="F254" s="1">
         <v>0</v>
@@ -16218,8 +16243,8 @@
       <c r="D255" s="1">
         <v>0</v>
       </c>
-      <c r="E255" s="1">
-        <v>10</v>
+      <c r="E255" s="25">
+        <v>15</v>
       </c>
       <c r="F255" s="1">
         <v>0</v>
@@ -16245,7 +16270,7 @@
         <v>0</v>
       </c>
       <c r="E256" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F256" s="25">
         <v>0</v>
@@ -16271,7 +16296,7 @@
         <v>0</v>
       </c>
       <c r="E257" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F257" s="25">
         <v>0</v>
@@ -16297,7 +16322,7 @@
         <v>0</v>
       </c>
       <c r="E258" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F258" s="25">
         <v>1</v>
@@ -16323,7 +16348,7 @@
         <v>0</v>
       </c>
       <c r="E259" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F259" s="25">
         <v>0</v>
@@ -16349,7 +16374,7 @@
         <v>0</v>
       </c>
       <c r="E260" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F260" s="25">
         <v>0</v>
@@ -16375,7 +16400,7 @@
         <v>0</v>
       </c>
       <c r="E261" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F261" s="25">
         <v>0</v>
@@ -16401,7 +16426,7 @@
         <v>0</v>
       </c>
       <c r="E262" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F262" s="25">
         <v>0</v>
@@ -16426,8 +16451,8 @@
       <c r="D263" s="1">
         <v>0</v>
       </c>
-      <c r="E263" s="1">
-        <v>10</v>
+      <c r="E263" s="25">
+        <v>15</v>
       </c>
       <c r="F263" s="1">
         <v>0</v>
@@ -16452,8 +16477,8 @@
       <c r="D264" s="1">
         <v>0</v>
       </c>
-      <c r="E264" s="1">
-        <v>10</v>
+      <c r="E264" s="25">
+        <v>15</v>
       </c>
       <c r="F264" s="1">
         <v>2</v>
@@ -16478,8 +16503,8 @@
       <c r="D265" s="1">
         <v>0</v>
       </c>
-      <c r="E265" s="1">
-        <v>10</v>
+      <c r="E265" s="25">
+        <v>15</v>
       </c>
       <c r="F265" s="1">
         <v>0</v>
@@ -16504,8 +16529,8 @@
       <c r="D266" s="1">
         <v>0</v>
       </c>
-      <c r="E266" s="1">
-        <v>10</v>
+      <c r="E266" s="25">
+        <v>15</v>
       </c>
       <c r="F266" s="1">
         <v>2</v>
@@ -16530,8 +16555,8 @@
       <c r="D267" s="1">
         <v>0</v>
       </c>
-      <c r="E267" s="1">
-        <v>10</v>
+      <c r="E267" s="25">
+        <v>15</v>
       </c>
       <c r="F267" s="1">
         <v>0</v>
@@ -16556,8 +16581,8 @@
       <c r="D268" s="1">
         <v>0</v>
       </c>
-      <c r="E268" s="1">
-        <v>10</v>
+      <c r="E268" s="25">
+        <v>15</v>
       </c>
       <c r="F268" s="1">
         <v>0</v>
@@ -16582,8 +16607,8 @@
       <c r="D269" s="1">
         <v>0</v>
       </c>
-      <c r="E269" s="1">
-        <v>10</v>
+      <c r="E269" s="25">
+        <v>15</v>
       </c>
       <c r="F269" s="1">
         <v>0</v>
@@ -16609,7 +16634,7 @@
         <v>0</v>
       </c>
       <c r="E270" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F270" s="25">
         <v>1</v>
@@ -16635,7 +16660,7 @@
         <v>0</v>
       </c>
       <c r="E271" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F271" s="25">
         <v>0</v>
@@ -16661,7 +16686,7 @@
         <v>0</v>
       </c>
       <c r="E272" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F272" s="25">
         <v>0</v>
@@ -16687,7 +16712,7 @@
         <v>0</v>
       </c>
       <c r="E273" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F273" s="25">
         <v>0</v>
@@ -16713,7 +16738,7 @@
         <v>0</v>
       </c>
       <c r="E274" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F274" s="25">
         <v>0</v>
@@ -16739,7 +16764,7 @@
         <v>0</v>
       </c>
       <c r="E275" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F275" s="25">
         <v>1</v>
@@ -16765,7 +16790,7 @@
         <v>0</v>
       </c>
       <c r="E276" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F276" s="25">
         <v>0</v>
@@ -16790,8 +16815,8 @@
       <c r="D277" s="1">
         <v>0</v>
       </c>
-      <c r="E277" s="1">
-        <v>10</v>
+      <c r="E277" s="25">
+        <v>15</v>
       </c>
       <c r="F277" s="1">
         <v>0</v>
@@ -16816,8 +16841,8 @@
       <c r="D278" s="1">
         <v>0</v>
       </c>
-      <c r="E278" s="1">
-        <v>10</v>
+      <c r="E278" s="25">
+        <v>15</v>
       </c>
       <c r="F278" s="1">
         <v>1</v>
@@ -16842,8 +16867,8 @@
       <c r="D279" s="1">
         <v>0</v>
       </c>
-      <c r="E279" s="1">
-        <v>10</v>
+      <c r="E279" s="25">
+        <v>15</v>
       </c>
       <c r="F279" s="1">
         <v>0</v>
@@ -16868,8 +16893,8 @@
       <c r="D280" s="1">
         <v>0</v>
       </c>
-      <c r="E280" s="1">
-        <v>10</v>
+      <c r="E280" s="25">
+        <v>15</v>
       </c>
       <c r="F280" s="1">
         <v>1</v>
@@ -16894,8 +16919,8 @@
       <c r="D281" s="1">
         <v>0</v>
       </c>
-      <c r="E281" s="1">
-        <v>10</v>
+      <c r="E281" s="25">
+        <v>15</v>
       </c>
       <c r="F281" s="1">
         <v>0</v>
@@ -16920,8 +16945,8 @@
       <c r="D282" s="1">
         <v>0</v>
       </c>
-      <c r="E282" s="1">
-        <v>10</v>
+      <c r="E282" s="25">
+        <v>15</v>
       </c>
       <c r="F282" s="1">
         <v>0</v>
@@ -16946,8 +16971,8 @@
       <c r="D283" s="1">
         <v>0</v>
       </c>
-      <c r="E283" s="1">
-        <v>10</v>
+      <c r="E283" s="25">
+        <v>15</v>
       </c>
       <c r="F283" s="1">
         <v>0</v>
@@ -16973,7 +16998,7 @@
         <v>1</v>
       </c>
       <c r="E284" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F284" s="25">
         <v>0</v>
@@ -16996,7 +17021,7 @@
         <v>5</v>
       </c>
       <c r="E285" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F285" s="25">
         <v>0</v>
@@ -17019,7 +17044,7 @@
         <v>5</v>
       </c>
       <c r="E286" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F286" s="25">
         <v>0</v>
@@ -17042,7 +17067,7 @@
         <v>5</v>
       </c>
       <c r="E287" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F287" s="25">
         <v>0</v>
@@ -17065,7 +17090,7 @@
         <v>5</v>
       </c>
       <c r="E288" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F288" s="25">
         <v>0</v>
@@ -17088,7 +17113,7 @@
         <v>5</v>
       </c>
       <c r="E289" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F289" s="25">
         <v>0</v>
@@ -17111,7 +17136,7 @@
         <v>5</v>
       </c>
       <c r="E290" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F290" s="25">
         <v>0</v>
@@ -17134,7 +17159,7 @@
         <v>5</v>
       </c>
       <c r="E291" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F291" s="25">
         <v>0</v>
@@ -17157,7 +17182,7 @@
         <v>5</v>
       </c>
       <c r="E292" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F292" s="25">
         <v>0</v>
@@ -17180,7 +17205,7 @@
         <v>1</v>
       </c>
       <c r="E293" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F293" s="25">
         <v>0</v>
@@ -17203,7 +17228,7 @@
         <v>5</v>
       </c>
       <c r="E294" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F294" s="25">
         <v>0</v>
@@ -17226,7 +17251,7 @@
         <v>5</v>
       </c>
       <c r="E295" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F295" s="25">
         <v>0</v>
@@ -17249,7 +17274,7 @@
         <v>5</v>
       </c>
       <c r="E296" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F296" s="25">
         <v>0</v>
@@ -17272,7 +17297,7 @@
         <v>5</v>
       </c>
       <c r="E297" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F297" s="25">
         <v>0</v>
@@ -17295,7 +17320,7 @@
         <v>5</v>
       </c>
       <c r="E298" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F298" s="25">
         <v>0</v>
@@ -17318,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="E299" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F299" s="25">
         <v>0</v>
@@ -17341,7 +17366,7 @@
         <v>5</v>
       </c>
       <c r="E300" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F300" s="25">
         <v>0</v>
@@ -17364,7 +17389,7 @@
         <v>5</v>
       </c>
       <c r="E301" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F301" s="25">
         <v>0</v>
@@ -17387,7 +17412,7 @@
         <v>5</v>
       </c>
       <c r="E302" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F302" s="25">
         <v>0</v>
@@ -17410,7 +17435,7 @@
         <v>5</v>
       </c>
       <c r="E303" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F303" s="25">
         <v>0</v>
@@ -17433,7 +17458,7 @@
         <v>5</v>
       </c>
       <c r="E304" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F304" s="25">
         <v>0</v>
@@ -17456,7 +17481,7 @@
         <v>5</v>
       </c>
       <c r="E305" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F305" s="25">
         <v>0</v>
@@ -17479,7 +17504,7 @@
         <v>5</v>
       </c>
       <c r="E306" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F306" s="25">
         <v>0</v>
@@ -17502,7 +17527,7 @@
         <v>1</v>
       </c>
       <c r="E307" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F307" s="25">
         <v>0</v>
@@ -17525,7 +17550,7 @@
         <v>5</v>
       </c>
       <c r="E308" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F308" s="25">
         <v>0</v>
@@ -17548,7 +17573,7 @@
         <v>5</v>
       </c>
       <c r="E309" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F309" s="25">
         <v>0</v>
@@ -17571,7 +17596,7 @@
         <v>5</v>
       </c>
       <c r="E310" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F310" s="25">
         <v>0</v>
@@ -17594,7 +17619,7 @@
         <v>5</v>
       </c>
       <c r="E311" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F311" s="25">
         <v>0</v>
@@ -17617,7 +17642,7 @@
         <v>5</v>
       </c>
       <c r="E312" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F312" s="25">
         <v>0</v>
@@ -17640,7 +17665,7 @@
         <v>5</v>
       </c>
       <c r="E313" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F313" s="25">
         <v>0</v>
@@ -17663,7 +17688,7 @@
         <v>5</v>
       </c>
       <c r="E314" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F314" s="25">
         <v>0</v>
@@ -17686,7 +17711,7 @@
         <v>5</v>
       </c>
       <c r="E315" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F315" s="25">
         <v>0</v>
@@ -17709,7 +17734,7 @@
         <v>5</v>
       </c>
       <c r="E316" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F316" s="25">
         <v>0</v>
@@ -17732,7 +17757,7 @@
         <v>1</v>
       </c>
       <c r="E317" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F317" s="25">
         <v>0</v>
@@ -17755,7 +17780,7 @@
         <v>5</v>
       </c>
       <c r="E318" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F318" s="25">
         <v>0</v>
@@ -17778,7 +17803,7 @@
         <v>5</v>
       </c>
       <c r="E319" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F319" s="25">
         <v>0</v>
@@ -17801,7 +17826,7 @@
         <v>5</v>
       </c>
       <c r="E320" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F320" s="25">
         <v>0</v>
@@ -17824,7 +17849,7 @@
         <v>5</v>
       </c>
       <c r="E321" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F321" s="25">
         <v>0</v>
@@ -17847,7 +17872,7 @@
         <v>5</v>
       </c>
       <c r="E322" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F322" s="25">
         <v>0</v>
@@ -17870,7 +17895,7 @@
         <v>1</v>
       </c>
       <c r="E323" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F323" s="25">
         <v>0</v>
@@ -17893,7 +17918,7 @@
         <v>5</v>
       </c>
       <c r="E324" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F324" s="25">
         <v>0</v>
@@ -17916,7 +17941,7 @@
         <v>5</v>
       </c>
       <c r="E325" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F325" s="25">
         <v>0</v>
@@ -17939,7 +17964,7 @@
         <v>5</v>
       </c>
       <c r="E326" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F326" s="25">
         <v>0</v>
@@ -17962,7 +17987,7 @@
         <v>5</v>
       </c>
       <c r="E327" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F327" s="25">
         <v>0</v>
@@ -17985,7 +18010,7 @@
         <v>5</v>
       </c>
       <c r="E328" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F328" s="25">
         <v>0</v>
@@ -18008,7 +18033,7 @@
         <v>5</v>
       </c>
       <c r="E329" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F329" s="25">
         <v>0</v>
@@ -18031,7 +18056,7 @@
         <v>1</v>
       </c>
       <c r="E330" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F330" s="25">
         <v>0</v>
@@ -18054,7 +18079,7 @@
         <v>5</v>
       </c>
       <c r="E331" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F331" s="25">
         <v>0</v>
@@ -18077,7 +18102,7 @@
         <v>5</v>
       </c>
       <c r="E332" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F332" s="25">
         <v>0</v>
@@ -18100,7 +18125,7 @@
         <v>5</v>
       </c>
       <c r="E333" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F333" s="25">
         <v>0</v>
@@ -18123,7 +18148,7 @@
         <v>1</v>
       </c>
       <c r="E334" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F334" s="25">
         <v>0</v>
@@ -18146,7 +18171,7 @@
         <v>5</v>
       </c>
       <c r="E335" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F335" s="25">
         <v>0</v>
@@ -18169,7 +18194,7 @@
         <v>5</v>
       </c>
       <c r="E336" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F336" s="25">
         <v>0</v>
@@ -18192,7 +18217,7 @@
         <v>5</v>
       </c>
       <c r="E337" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F337" s="25">
         <v>0</v>
@@ -18215,7 +18240,7 @@
         <v>5</v>
       </c>
       <c r="E338" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F338" s="25">
         <v>0</v>
@@ -18238,7 +18263,7 @@
         <v>5</v>
       </c>
       <c r="E339" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F339" s="25">
         <v>0</v>
@@ -18261,7 +18286,7 @@
         <v>5</v>
       </c>
       <c r="E340" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F340" s="25">
         <v>0</v>
@@ -18284,7 +18309,7 @@
         <v>5</v>
       </c>
       <c r="E341" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F341" s="25">
         <v>0</v>
@@ -18307,7 +18332,7 @@
         <v>5</v>
       </c>
       <c r="E342" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F342" s="25">
         <v>0</v>
@@ -18330,7 +18355,7 @@
         <v>5</v>
       </c>
       <c r="E343" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F343" s="25">
         <v>0</v>
@@ -18353,7 +18378,7 @@
         <v>1</v>
       </c>
       <c r="E344" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F344" s="25">
         <v>0</v>
@@ -18376,7 +18401,7 @@
         <v>5</v>
       </c>
       <c r="E345" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F345" s="25">
         <v>0</v>
@@ -18399,7 +18424,7 @@
         <v>5</v>
       </c>
       <c r="E346" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F346" s="25">
         <v>0</v>
@@ -18422,7 +18447,7 @@
         <v>5</v>
       </c>
       <c r="E347" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F347" s="25">
         <v>0</v>
@@ -18445,7 +18470,7 @@
         <v>5</v>
       </c>
       <c r="E348" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F348" s="25">
         <v>0</v>
@@ -18468,7 +18493,7 @@
         <v>5</v>
       </c>
       <c r="E349" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F349" s="25">
         <v>0</v>
@@ -18491,7 +18516,7 @@
         <v>5</v>
       </c>
       <c r="E350" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F350" s="25">
         <v>0</v>
@@ -18514,7 +18539,7 @@
         <v>5</v>
       </c>
       <c r="E351" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F351" s="25">
         <v>0</v>
@@ -18537,7 +18562,7 @@
         <v>1</v>
       </c>
       <c r="E352" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F352" s="25">
         <v>0</v>
@@ -18560,7 +18585,7 @@
         <v>5</v>
       </c>
       <c r="E353" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F353" s="25">
         <v>0</v>
@@ -18583,7 +18608,7 @@
         <v>5</v>
       </c>
       <c r="E354" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F354" s="25">
         <v>0</v>
@@ -18606,7 +18631,7 @@
         <v>5</v>
       </c>
       <c r="E355" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F355" s="25">
         <v>0</v>
@@ -18629,7 +18654,7 @@
         <v>5</v>
       </c>
       <c r="E356" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F356" s="25">
         <v>0</v>
@@ -18652,7 +18677,7 @@
         <v>5</v>
       </c>
       <c r="E357" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F357" s="25">
         <v>0</v>
@@ -18675,7 +18700,7 @@
         <v>5</v>
       </c>
       <c r="E358" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F358" s="25">
         <v>0</v>
@@ -18698,7 +18723,7 @@
         <v>1</v>
       </c>
       <c r="E359" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F359" s="25">
         <v>0</v>
@@ -18721,7 +18746,7 @@
         <v>5</v>
       </c>
       <c r="E360" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F360" s="25">
         <v>0</v>
@@ -18744,7 +18769,7 @@
         <v>5</v>
       </c>
       <c r="E361" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F361" s="25">
         <v>0</v>
@@ -18767,7 +18792,7 @@
         <v>5</v>
       </c>
       <c r="E362" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F362" s="25">
         <v>0</v>
@@ -18790,7 +18815,7 @@
         <v>1</v>
       </c>
       <c r="E363" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F363" s="25">
         <v>0</v>
@@ -18813,7 +18838,7 @@
         <v>5</v>
       </c>
       <c r="E364" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F364" s="25">
         <v>0</v>
@@ -18836,7 +18861,7 @@
         <v>5</v>
       </c>
       <c r="E365" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F365" s="25">
         <v>0</v>
@@ -18859,7 +18884,7 @@
         <v>5</v>
       </c>
       <c r="E366" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F366" s="25">
         <v>0</v>
@@ -18882,7 +18907,7 @@
         <v>5</v>
       </c>
       <c r="E367" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F367" s="25">
         <v>0</v>
@@ -18905,7 +18930,7 @@
         <v>5</v>
       </c>
       <c r="E368" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F368" s="25">
         <v>0</v>
@@ -18928,7 +18953,7 @@
         <v>5</v>
       </c>
       <c r="E369" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F369" s="25">
         <v>0</v>
@@ -18951,7 +18976,7 @@
         <v>5</v>
       </c>
       <c r="E370" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F370" s="25">
         <v>0</v>
@@ -18974,7 +18999,7 @@
         <v>5</v>
       </c>
       <c r="E371" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F371" s="25">
         <v>0</v>
@@ -18997,7 +19022,7 @@
         <v>5</v>
       </c>
       <c r="E372" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F372" s="25">
         <v>0</v>
@@ -19020,7 +19045,7 @@
         <v>5</v>
       </c>
       <c r="E373" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F373" s="25">
         <v>0</v>
@@ -19043,7 +19068,7 @@
         <v>5</v>
       </c>
       <c r="E374" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F374" s="25">
         <v>0</v>
@@ -19066,7 +19091,7 @@
         <v>5</v>
       </c>
       <c r="E375" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F375" s="25">
         <v>0</v>
@@ -19089,7 +19114,7 @@
         <v>5</v>
       </c>
       <c r="E376" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F376" s="25">
         <v>0</v>
@@ -19112,7 +19137,7 @@
         <v>5</v>
       </c>
       <c r="E377" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F377" s="25">
         <v>0</v>
@@ -19135,7 +19160,7 @@
         <v>5</v>
       </c>
       <c r="E378" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F378" s="25">
         <v>0</v>
@@ -19158,7 +19183,7 @@
         <v>5</v>
       </c>
       <c r="E379" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F379" s="25">
         <v>0</v>
@@ -19181,7 +19206,7 @@
         <v>5</v>
       </c>
       <c r="E380" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F380" s="25">
         <v>0</v>
@@ -19204,7 +19229,7 @@
         <v>5</v>
       </c>
       <c r="E381" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F381" s="25">
         <v>0</v>
@@ -19227,7 +19252,7 @@
         <v>5</v>
       </c>
       <c r="E382" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F382" s="25">
         <v>0</v>
@@ -19250,7 +19275,7 @@
         <v>5</v>
       </c>
       <c r="E383" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F383" s="25">
         <v>0</v>
@@ -19273,7 +19298,7 @@
         <v>5</v>
       </c>
       <c r="E384" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F384" s="25">
         <v>0</v>
@@ -19296,7 +19321,7 @@
         <v>5</v>
       </c>
       <c r="E385" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F385" s="25">
         <v>0</v>
@@ -19319,7 +19344,7 @@
         <v>5</v>
       </c>
       <c r="E386" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F386" s="25">
         <v>0</v>
@@ -19342,7 +19367,7 @@
         <v>5</v>
       </c>
       <c r="E387" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F387" s="25">
         <v>0</v>
@@ -19365,7 +19390,7 @@
         <v>5</v>
       </c>
       <c r="E388" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F388" s="25">
         <v>0</v>
@@ -19388,7 +19413,7 @@
         <v>5</v>
       </c>
       <c r="E389" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F389" s="25">
         <v>0</v>
@@ -19411,7 +19436,7 @@
         <v>5</v>
       </c>
       <c r="E390" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F390" s="25">
         <v>0</v>
@@ -19434,7 +19459,7 @@
         <v>5</v>
       </c>
       <c r="E391" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F391" s="25">
         <v>0</v>
@@ -19457,7 +19482,7 @@
         <v>5</v>
       </c>
       <c r="E392" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F392" s="25">
         <v>0</v>
@@ -19480,7 +19505,7 @@
         <v>5</v>
       </c>
       <c r="E393" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F393" s="25">
         <v>0</v>
@@ -19503,7 +19528,7 @@
         <v>5</v>
       </c>
       <c r="E394" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F394" s="25">
         <v>0</v>
@@ -19526,7 +19551,7 @@
         <v>5</v>
       </c>
       <c r="E395" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F395" s="25">
         <v>0</v>
@@ -19549,7 +19574,7 @@
         <v>5</v>
       </c>
       <c r="E396" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F396" s="25">
         <v>0</v>
@@ -19572,7 +19597,7 @@
         <v>5</v>
       </c>
       <c r="E397" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F397" s="25">
         <v>0</v>
@@ -19595,7 +19620,7 @@
         <v>5</v>
       </c>
       <c r="E398" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F398" s="25">
         <v>0</v>
@@ -19618,7 +19643,7 @@
         <v>5</v>
       </c>
       <c r="E399" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F399" s="25">
         <v>0</v>
@@ -19641,7 +19666,7 @@
         <v>5</v>
       </c>
       <c r="E400" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F400" s="25">
         <v>0</v>
@@ -19664,7 +19689,7 @@
         <v>5</v>
       </c>
       <c r="E401" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F401" s="25">
         <v>0</v>
@@ -19687,7 +19712,7 @@
         <v>5</v>
       </c>
       <c r="E402" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F402" s="25">
         <v>0</v>
@@ -19710,7 +19735,7 @@
         <v>5</v>
       </c>
       <c r="E403" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F403" s="25">
         <v>0</v>
@@ -19733,7 +19758,7 @@
         <v>5</v>
       </c>
       <c r="E404" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F404" s="25">
         <v>0</v>
@@ -19756,7 +19781,7 @@
         <v>5</v>
       </c>
       <c r="E405" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F405" s="25">
         <v>0</v>
@@ -19779,7 +19804,7 @@
         <v>5</v>
       </c>
       <c r="E406" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F406" s="25">
         <v>0</v>
@@ -19802,7 +19827,7 @@
         <v>5</v>
       </c>
       <c r="E407" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F407" s="25">
         <v>0</v>
@@ -19825,7 +19850,7 @@
         <v>5</v>
       </c>
       <c r="E408" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F408" s="25">
         <v>0</v>
@@ -19848,7 +19873,7 @@
         <v>5</v>
       </c>
       <c r="E409" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F409" s="25">
         <v>0</v>
@@ -19871,7 +19896,7 @@
         <v>5</v>
       </c>
       <c r="E410" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F410" s="25">
         <v>0</v>
@@ -19894,7 +19919,7 @@
         <v>5</v>
       </c>
       <c r="E411" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F411" s="25">
         <v>0</v>
@@ -19917,7 +19942,7 @@
         <v>5</v>
       </c>
       <c r="E412" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F412" s="25">
         <v>0</v>
@@ -19940,7 +19965,7 @@
         <v>5</v>
       </c>
       <c r="E413" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F413" s="25">
         <v>0</v>
@@ -19963,7 +19988,7 @@
         <v>5</v>
       </c>
       <c r="E414" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F414" s="25">
         <v>0</v>
@@ -19986,7 +20011,7 @@
         <v>5</v>
       </c>
       <c r="E415" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F415" s="25">
         <v>0</v>
@@ -20009,7 +20034,7 @@
         <v>5</v>
       </c>
       <c r="E416" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F416" s="25">
         <v>0</v>
@@ -20032,7 +20057,7 @@
         <v>5</v>
       </c>
       <c r="E417" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F417" s="25">
         <v>0</v>
@@ -20055,7 +20080,7 @@
         <v>5</v>
       </c>
       <c r="E418" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F418" s="25">
         <v>0</v>
@@ -20078,7 +20103,7 @@
         <v>5</v>
       </c>
       <c r="E419" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F419" s="25">
         <v>0</v>
@@ -20101,7 +20126,7 @@
         <v>5</v>
       </c>
       <c r="E420" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F420" s="25">
         <v>0</v>
@@ -20124,7 +20149,7 @@
         <v>5</v>
       </c>
       <c r="E421" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F421" s="25">
         <v>0</v>
@@ -20147,7 +20172,7 @@
         <v>5</v>
       </c>
       <c r="E422" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F422" s="25">
         <v>0</v>
@@ -20170,7 +20195,7 @@
         <v>5</v>
       </c>
       <c r="E423" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F423" s="25">
         <v>0</v>
@@ -20193,7 +20218,7 @@
         <v>5</v>
       </c>
       <c r="E424" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F424" s="25">
         <v>0</v>
@@ -20216,7 +20241,7 @@
         <v>5</v>
       </c>
       <c r="E425" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F425" s="25">
         <v>0</v>
@@ -20239,7 +20264,7 @@
         <v>5</v>
       </c>
       <c r="E426" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F426" s="25">
         <v>0</v>
@@ -20262,7 +20287,7 @@
         <v>5</v>
       </c>
       <c r="E427" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F427" s="25">
         <v>0</v>
@@ -20285,7 +20310,7 @@
         <v>5</v>
       </c>
       <c r="E428" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F428" s="25">
         <v>0</v>
@@ -20308,7 +20333,7 @@
         <v>5</v>
       </c>
       <c r="E429" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F429" s="25">
         <v>0</v>
@@ -20331,7 +20356,7 @@
         <v>5</v>
       </c>
       <c r="E430" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F430" s="25">
         <v>0</v>
@@ -20354,7 +20379,7 @@
         <v>5</v>
       </c>
       <c r="E431" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F431" s="25">
         <v>0</v>
@@ -20377,7 +20402,7 @@
         <v>5</v>
       </c>
       <c r="E432" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F432" s="25">
         <v>0</v>
@@ -20400,7 +20425,7 @@
         <v>5</v>
       </c>
       <c r="E433" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F433" s="25">
         <v>0</v>
@@ -20423,7 +20448,7 @@
         <v>5</v>
       </c>
       <c r="E434" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F434" s="25">
         <v>0</v>
@@ -20446,7 +20471,7 @@
         <v>5</v>
       </c>
       <c r="E435" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F435" s="25">
         <v>0</v>
@@ -20469,7 +20494,7 @@
         <v>5</v>
       </c>
       <c r="E436" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F436" s="25">
         <v>0</v>
@@ -20492,7 +20517,7 @@
         <v>5</v>
       </c>
       <c r="E437" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F437" s="25">
         <v>0</v>
@@ -20515,7 +20540,7 @@
         <v>5</v>
       </c>
       <c r="E438" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F438" s="25">
         <v>0</v>
@@ -20538,7 +20563,7 @@
         <v>5</v>
       </c>
       <c r="E439" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F439" s="25">
         <v>0</v>
@@ -20561,7 +20586,7 @@
         <v>5</v>
       </c>
       <c r="E440" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F440" s="25">
         <v>0</v>
@@ -20584,7 +20609,7 @@
         <v>5</v>
       </c>
       <c r="E441" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F441" s="25">
         <v>0</v>
@@ -20607,7 +20632,7 @@
         <v>5</v>
       </c>
       <c r="E442" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F442" s="25">
         <v>0</v>
@@ -20630,7 +20655,7 @@
         <v>5</v>
       </c>
       <c r="E443" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F443" s="25">
         <v>0</v>
@@ -20653,7 +20678,7 @@
         <v>5</v>
       </c>
       <c r="E444" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F444" s="25">
         <v>0</v>
@@ -20676,7 +20701,7 @@
         <v>5</v>
       </c>
       <c r="E445" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F445" s="25">
         <v>0</v>
@@ -20699,7 +20724,7 @@
         <v>5</v>
       </c>
       <c r="E446" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F446" s="25">
         <v>0</v>
@@ -20722,7 +20747,7 @@
         <v>5</v>
       </c>
       <c r="E447" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F447" s="25">
         <v>0</v>
@@ -20745,7 +20770,7 @@
         <v>5</v>
       </c>
       <c r="E448" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F448" s="25">
         <v>0</v>
@@ -20768,7 +20793,7 @@
         <v>5</v>
       </c>
       <c r="E449" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F449" s="25">
         <v>0</v>
@@ -20791,7 +20816,7 @@
         <v>5</v>
       </c>
       <c r="E450" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F450" s="25">
         <v>0</v>
@@ -20814,7 +20839,7 @@
         <v>5</v>
       </c>
       <c r="E451" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F451" s="25">
         <v>0</v>
@@ -20837,7 +20862,7 @@
         <v>5</v>
       </c>
       <c r="E452" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F452" s="25">
         <v>0</v>
@@ -20860,7 +20885,7 @@
         <v>5</v>
       </c>
       <c r="E453" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F453" s="25">
         <v>0</v>
@@ -20883,7 +20908,7 @@
         <v>5</v>
       </c>
       <c r="E454" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F454" s="25">
         <v>0</v>
@@ -20906,7 +20931,7 @@
         <v>5</v>
       </c>
       <c r="E455" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F455" s="25">
         <v>0</v>
@@ -20929,7 +20954,7 @@
         <v>5</v>
       </c>
       <c r="E456" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F456" s="25">
         <v>0</v>
@@ -20952,7 +20977,7 @@
         <v>5</v>
       </c>
       <c r="E457" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F457" s="25">
         <v>0</v>
@@ -20975,7 +21000,7 @@
         <v>5</v>
       </c>
       <c r="E458" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F458" s="25">
         <v>0</v>
@@ -20998,7 +21023,7 @@
         <v>5</v>
       </c>
       <c r="E459" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F459" s="25">
         <v>0</v>
@@ -21021,7 +21046,7 @@
         <v>5</v>
       </c>
       <c r="E460" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F460" s="25">
         <v>0</v>
@@ -21044,7 +21069,7 @@
         <v>5</v>
       </c>
       <c r="E461" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F461" s="25">
         <v>0</v>
@@ -21067,7 +21092,7 @@
         <v>5</v>
       </c>
       <c r="E462" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F462" s="25">
         <v>0</v>
@@ -21090,7 +21115,7 @@
         <v>5</v>
       </c>
       <c r="E463" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F463" s="25">
         <v>0</v>
@@ -21113,7 +21138,7 @@
         <v>5</v>
       </c>
       <c r="E464" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F464" s="25">
         <v>0</v>
@@ -21136,7 +21161,7 @@
         <v>5</v>
       </c>
       <c r="E465" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F465" s="25">
         <v>0</v>
@@ -21159,7 +21184,7 @@
         <v>5</v>
       </c>
       <c r="E466" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F466" s="25">
         <v>0</v>
@@ -21182,7 +21207,7 @@
         <v>5</v>
       </c>
       <c r="E467" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F467" s="25">
         <v>0</v>
@@ -21205,7 +21230,7 @@
         <v>5</v>
       </c>
       <c r="E468" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F468" s="25">
         <v>0</v>
@@ -21228,7 +21253,7 @@
         <v>5</v>
       </c>
       <c r="E469" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F469" s="25">
         <v>0</v>
@@ -21251,7 +21276,7 @@
         <v>5</v>
       </c>
       <c r="E470" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F470" s="25">
         <v>0</v>
@@ -21274,7 +21299,7 @@
         <v>5</v>
       </c>
       <c r="E471" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F471" s="25">
         <v>0</v>
@@ -21297,7 +21322,7 @@
         <v>5</v>
       </c>
       <c r="E472" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F472" s="25">
         <v>0</v>
@@ -21320,7 +21345,7 @@
         <v>5</v>
       </c>
       <c r="E473" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F473" s="25">
         <v>0</v>
@@ -21343,7 +21368,7 @@
         <v>5</v>
       </c>
       <c r="E474" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F474" s="25">
         <v>0</v>
@@ -21366,7 +21391,7 @@
         <v>5</v>
       </c>
       <c r="E475" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F475" s="25">
         <v>0</v>
@@ -21389,7 +21414,7 @@
         <v>5</v>
       </c>
       <c r="E476" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F476" s="25">
         <v>0</v>
@@ -21412,7 +21437,7 @@
         <v>5</v>
       </c>
       <c r="E477" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F477" s="25">
         <v>0</v>
@@ -21435,7 +21460,7 @@
         <v>5</v>
       </c>
       <c r="E478" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F478" s="25">
         <v>0</v>
@@ -21458,7 +21483,7 @@
         <v>5</v>
       </c>
       <c r="E479" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F479" s="25">
         <v>0</v>
@@ -21481,7 +21506,7 @@
         <v>5</v>
       </c>
       <c r="E480" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F480" s="25">
         <v>0</v>
@@ -21504,7 +21529,7 @@
         <v>5</v>
       </c>
       <c r="E481" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F481" s="25">
         <v>0</v>
@@ -21527,7 +21552,7 @@
         <v>5</v>
       </c>
       <c r="E482" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F482" s="25">
         <v>0</v>
@@ -21550,7 +21575,7 @@
         <v>5</v>
       </c>
       <c r="E483" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F483" s="25">
         <v>0</v>
@@ -21573,7 +21598,7 @@
         <v>5</v>
       </c>
       <c r="E484" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F484" s="25">
         <v>0</v>
@@ -21596,7 +21621,7 @@
         <v>5</v>
       </c>
       <c r="E485" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F485" s="25">
         <v>0</v>
@@ -21619,7 +21644,7 @@
         <v>5</v>
       </c>
       <c r="E486" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F486" s="25">
         <v>0</v>
@@ -21642,7 +21667,7 @@
         <v>5</v>
       </c>
       <c r="E487" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F487" s="25">
         <v>0</v>
@@ -21665,7 +21690,7 @@
         <v>5</v>
       </c>
       <c r="E488" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F488" s="25">
         <v>0</v>
@@ -21688,7 +21713,7 @@
         <v>5</v>
       </c>
       <c r="E489" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F489" s="25">
         <v>0</v>
@@ -21711,7 +21736,7 @@
         <v>5</v>
       </c>
       <c r="E490" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F490" s="25">
         <v>0</v>
@@ -21734,7 +21759,7 @@
         <v>5</v>
       </c>
       <c r="E491" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F491" s="25">
         <v>0</v>
@@ -21757,7 +21782,7 @@
         <v>5</v>
       </c>
       <c r="E492" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F492" s="25">
         <v>0</v>
@@ -21780,7 +21805,7 @@
         <v>5</v>
       </c>
       <c r="E493" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F493" s="25">
         <v>0</v>
@@ -21803,7 +21828,7 @@
         <v>5</v>
       </c>
       <c r="E494" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F494" s="25">
         <v>0</v>
@@ -21826,7 +21851,7 @@
         <v>5</v>
       </c>
       <c r="E495" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F495" s="25">
         <v>0</v>
@@ -21849,7 +21874,7 @@
         <v>5</v>
       </c>
       <c r="E496" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F496" s="25">
         <v>0</v>
@@ -21872,7 +21897,7 @@
         <v>5</v>
       </c>
       <c r="E497" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F497" s="25">
         <v>0</v>
@@ -21895,7 +21920,7 @@
         <v>5</v>
       </c>
       <c r="E498" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F498" s="25">
         <v>0</v>
@@ -21918,7 +21943,7 @@
         <v>5</v>
       </c>
       <c r="E499" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F499" s="25">
         <v>0</v>
@@ -21941,7 +21966,7 @@
         <v>5</v>
       </c>
       <c r="E500" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F500" s="25">
         <v>0</v>
@@ -21964,7 +21989,7 @@
         <v>5</v>
       </c>
       <c r="E501" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F501" s="25">
         <v>0</v>
@@ -21987,7 +22012,7 @@
         <v>5</v>
       </c>
       <c r="E502" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F502" s="25">
         <v>0</v>
@@ -22010,7 +22035,7 @@
         <v>5</v>
       </c>
       <c r="E503" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F503" s="25">
         <v>0</v>
@@ -22033,7 +22058,7 @@
         <v>5</v>
       </c>
       <c r="E504" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F504" s="25">
         <v>0</v>
@@ -22056,7 +22081,7 @@
         <v>5</v>
       </c>
       <c r="E505" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F505" s="25">
         <v>0</v>
@@ -22079,7 +22104,7 @@
         <v>5</v>
       </c>
       <c r="E506" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F506" s="25">
         <v>0</v>
@@ -22102,7 +22127,7 @@
         <v>5</v>
       </c>
       <c r="E507" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F507" s="25">
         <v>0</v>
@@ -22125,7 +22150,7 @@
         <v>5</v>
       </c>
       <c r="E508" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F508" s="25">
         <v>0</v>
@@ -22148,7 +22173,7 @@
         <v>5</v>
       </c>
       <c r="E509" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F509" s="25">
         <v>0</v>
@@ -22171,7 +22196,7 @@
         <v>5</v>
       </c>
       <c r="E510" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F510" s="25">
         <v>0</v>
@@ -22194,7 +22219,7 @@
         <v>5</v>
       </c>
       <c r="E511" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F511" s="25">
         <v>0</v>
@@ -22217,7 +22242,7 @@
         <v>5</v>
       </c>
       <c r="E512" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F512" s="25">
         <v>0</v>
@@ -22240,7 +22265,7 @@
         <v>5</v>
       </c>
       <c r="E513" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F513" s="25">
         <v>0</v>
@@ -22263,7 +22288,7 @@
         <v>5</v>
       </c>
       <c r="E514" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F514" s="25">
         <v>0</v>
@@ -22286,7 +22311,7 @@
         <v>5</v>
       </c>
       <c r="E515" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F515" s="25">
         <v>0</v>
@@ -22309,7 +22334,7 @@
         <v>5</v>
       </c>
       <c r="E516" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F516" s="25">
         <v>0</v>
@@ -22332,7 +22357,7 @@
         <v>5</v>
       </c>
       <c r="E517" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F517" s="25">
         <v>0</v>
@@ -22355,7 +22380,7 @@
         <v>5</v>
       </c>
       <c r="E518" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F518" s="25">
         <v>0</v>
@@ -22378,7 +22403,7 @@
         <v>5</v>
       </c>
       <c r="E519" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F519" s="25">
         <v>0</v>
@@ -22401,7 +22426,7 @@
         <v>5</v>
       </c>
       <c r="E520" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F520" s="25">
         <v>0</v>
@@ -22424,7 +22449,7 @@
         <v>5</v>
       </c>
       <c r="E521" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F521" s="25">
         <v>0</v>
@@ -22447,7 +22472,7 @@
         <v>5</v>
       </c>
       <c r="E522" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F522" s="25">
         <v>0</v>
@@ -22470,7 +22495,7 @@
         <v>5</v>
       </c>
       <c r="E523" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F523" s="25">
         <v>0</v>
@@ -22493,7 +22518,7 @@
         <v>5</v>
       </c>
       <c r="E524" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F524" s="25">
         <v>0</v>
@@ -22516,7 +22541,7 @@
         <v>5</v>
       </c>
       <c r="E525" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F525" s="25">
         <v>0</v>
@@ -22539,7 +22564,7 @@
         <v>5</v>
       </c>
       <c r="E526" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F526" s="25">
         <v>0</v>
@@ -22562,7 +22587,7 @@
         <v>5</v>
       </c>
       <c r="E527" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F527" s="25">
         <v>0</v>
@@ -22585,7 +22610,7 @@
         <v>5</v>
       </c>
       <c r="E528" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F528" s="25">
         <v>0</v>
@@ -22608,7 +22633,7 @@
         <v>5</v>
       </c>
       <c r="E529" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F529" s="25">
         <v>0</v>
@@ -22631,7 +22656,7 @@
         <v>5</v>
       </c>
       <c r="E530" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F530" s="25">
         <v>0</v>
@@ -22654,7 +22679,7 @@
         <v>5</v>
       </c>
       <c r="E531" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F531" s="25">
         <v>0</v>
@@ -22677,7 +22702,7 @@
         <v>5</v>
       </c>
       <c r="E532" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F532" s="25">
         <v>0</v>
@@ -22700,7 +22725,7 @@
         <v>5</v>
       </c>
       <c r="E533" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F533" s="25">
         <v>0</v>
@@ -22723,7 +22748,7 @@
         <v>5</v>
       </c>
       <c r="E534" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F534" s="25">
         <v>0</v>
@@ -22746,7 +22771,7 @@
         <v>5</v>
       </c>
       <c r="E535" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F535" s="25">
         <v>0</v>
@@ -22769,7 +22794,7 @@
         <v>5</v>
       </c>
       <c r="E536" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F536" s="25">
         <v>0</v>
@@ -22792,7 +22817,7 @@
         <v>5</v>
       </c>
       <c r="E537" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F537" s="25">
         <v>0</v>
@@ -22815,7 +22840,7 @@
         <v>5</v>
       </c>
       <c r="E538" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F538" s="25">
         <v>0</v>
@@ -22838,7 +22863,7 @@
         <v>5</v>
       </c>
       <c r="E539" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F539" s="25">
         <v>0</v>
@@ -22861,7 +22886,7 @@
         <v>5</v>
       </c>
       <c r="E540" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F540" s="25">
         <v>0</v>
@@ -22884,7 +22909,7 @@
         <v>5</v>
       </c>
       <c r="E541" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F541" s="25">
         <v>0</v>
@@ -22907,7 +22932,7 @@
         <v>5</v>
       </c>
       <c r="E542" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F542" s="25">
         <v>0</v>
@@ -22930,7 +22955,7 @@
         <v>5</v>
       </c>
       <c r="E543" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F543" s="25">
         <v>0</v>
@@ -22953,7 +22978,7 @@
         <v>5</v>
       </c>
       <c r="E544" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F544" s="25">
         <v>0</v>
@@ -22976,7 +23001,7 @@
         <v>5</v>
       </c>
       <c r="E545" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F545" s="25">
         <v>0</v>
@@ -22999,7 +23024,7 @@
         <v>5</v>
       </c>
       <c r="E546" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F546" s="25">
         <v>0</v>
@@ -23022,7 +23047,7 @@
         <v>5</v>
       </c>
       <c r="E547" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F547" s="25">
         <v>0</v>
@@ -23045,7 +23070,7 @@
         <v>5</v>
       </c>
       <c r="E548" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F548" s="25">
         <v>0</v>
@@ -23068,7 +23093,7 @@
         <v>5</v>
       </c>
       <c r="E549" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F549" s="25">
         <v>0</v>
@@ -23091,7 +23116,7 @@
         <v>5</v>
       </c>
       <c r="E550" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F550" s="25">
         <v>0</v>
@@ -23114,7 +23139,7 @@
         <v>5</v>
       </c>
       <c r="E551" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F551" s="25">
         <v>0</v>
@@ -23137,7 +23162,7 @@
         <v>5</v>
       </c>
       <c r="E552" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F552" s="25">
         <v>0</v>
@@ -23160,7 +23185,7 @@
         <v>5</v>
       </c>
       <c r="E553" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F553" s="25">
         <v>0</v>
@@ -23183,7 +23208,7 @@
         <v>5</v>
       </c>
       <c r="E554" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F554" s="25">
         <v>0</v>
@@ -23206,7 +23231,7 @@
         <v>5</v>
       </c>
       <c r="E555" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F555" s="25">
         <v>0</v>
@@ -23229,7 +23254,7 @@
         <v>5</v>
       </c>
       <c r="E556" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F556" s="25">
         <v>0</v>
@@ -23252,7 +23277,7 @@
         <v>5</v>
       </c>
       <c r="E557" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F557" s="25">
         <v>0</v>
@@ -23275,7 +23300,7 @@
         <v>5</v>
       </c>
       <c r="E558" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F558" s="25">
         <v>0</v>
@@ -23298,7 +23323,7 @@
         <v>5</v>
       </c>
       <c r="E559" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F559" s="25">
         <v>0</v>
@@ -23321,7 +23346,7 @@
         <v>5</v>
       </c>
       <c r="E560" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F560" s="25">
         <v>0</v>
@@ -23344,7 +23369,7 @@
         <v>5</v>
       </c>
       <c r="E561" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F561" s="25">
         <v>0</v>
@@ -23367,7 +23392,7 @@
         <v>5</v>
       </c>
       <c r="E562" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F562" s="25">
         <v>0</v>
@@ -23390,7 +23415,7 @@
         <v>5</v>
       </c>
       <c r="E563" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F563" s="25">
         <v>0</v>
@@ -23413,7 +23438,7 @@
         <v>5</v>
       </c>
       <c r="E564" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F564" s="25">
         <v>0</v>
@@ -23436,7 +23461,7 @@
         <v>5</v>
       </c>
       <c r="E565" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F565" s="25">
         <v>0</v>
@@ -23459,7 +23484,7 @@
         <v>5</v>
       </c>
       <c r="E566" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F566" s="25">
         <v>0</v>
@@ -23482,7 +23507,7 @@
         <v>5</v>
       </c>
       <c r="E567" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F567" s="25">
         <v>0</v>
@@ -23505,7 +23530,7 @@
         <v>5</v>
       </c>
       <c r="E568" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F568" s="25">
         <v>0</v>
@@ -23528,7 +23553,7 @@
         <v>5</v>
       </c>
       <c r="E569" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F569" s="25">
         <v>0</v>
@@ -23551,7 +23576,7 @@
         <v>5</v>
       </c>
       <c r="E570" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F570" s="25">
         <v>0</v>
@@ -23574,7 +23599,7 @@
         <v>5</v>
       </c>
       <c r="E571" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F571" s="25">
         <v>0</v>
@@ -23597,7 +23622,7 @@
         <v>5</v>
       </c>
       <c r="E572" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F572" s="25">
         <v>0</v>
@@ -23620,7 +23645,7 @@
         <v>5</v>
       </c>
       <c r="E573" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F573" s="25">
         <v>0</v>
@@ -23643,7 +23668,7 @@
         <v>5</v>
       </c>
       <c r="E574" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F574" s="25">
         <v>0</v>
@@ -23666,7 +23691,7 @@
         <v>5</v>
       </c>
       <c r="E575" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F575" s="25">
         <v>0</v>
@@ -23689,7 +23714,7 @@
         <v>5</v>
       </c>
       <c r="E576" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F576" s="25">
         <v>0</v>
@@ -23712,7 +23737,7 @@
         <v>5</v>
       </c>
       <c r="E577" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F577" s="25">
         <v>0</v>
@@ -23735,7 +23760,7 @@
         <v>5</v>
       </c>
       <c r="E578" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F578" s="25">
         <v>0</v>
@@ -23758,7 +23783,7 @@
         <v>5</v>
       </c>
       <c r="E579" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F579" s="25">
         <v>0</v>
@@ -23781,7 +23806,7 @@
         <v>5</v>
       </c>
       <c r="E580" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F580" s="25">
         <v>0</v>
@@ -23804,7 +23829,7 @@
         <v>5</v>
       </c>
       <c r="E581" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F581" s="25">
         <v>0</v>
@@ -23827,7 +23852,7 @@
         <v>5</v>
       </c>
       <c r="E582" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F582" s="25">
         <v>0</v>
@@ -23850,7 +23875,7 @@
         <v>5</v>
       </c>
       <c r="E583" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F583" s="25">
         <v>0</v>
@@ -23873,7 +23898,7 @@
         <v>5</v>
       </c>
       <c r="E584" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F584" s="25">
         <v>0</v>
@@ -23896,7 +23921,7 @@
         <v>5</v>
       </c>
       <c r="E585" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F585" s="25">
         <v>0</v>
@@ -23919,7 +23944,7 @@
         <v>5</v>
       </c>
       <c r="E586" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F586" s="25">
         <v>0</v>
@@ -23942,7 +23967,7 @@
         <v>5</v>
       </c>
       <c r="E587" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F587" s="25">
         <v>0</v>
@@ -23965,7 +23990,7 @@
         <v>5</v>
       </c>
       <c r="E588" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F588" s="25">
         <v>0</v>
@@ -23988,7 +24013,7 @@
         <v>5</v>
       </c>
       <c r="E589" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F589" s="25">
         <v>0</v>
@@ -24011,7 +24036,7 @@
         <v>5</v>
       </c>
       <c r="E590" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F590" s="25">
         <v>0</v>
@@ -24034,7 +24059,7 @@
         <v>5</v>
       </c>
       <c r="E591" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F591" s="25">
         <v>0</v>
@@ -24057,7 +24082,7 @@
         <v>5</v>
       </c>
       <c r="E592" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F592" s="25">
         <v>0</v>
@@ -24080,7 +24105,7 @@
         <v>5</v>
       </c>
       <c r="E593" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F593" s="25">
         <v>0</v>
@@ -24103,7 +24128,7 @@
         <v>5</v>
       </c>
       <c r="E594" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F594" s="25">
         <v>0</v>
@@ -24126,7 +24151,7 @@
         <v>5</v>
       </c>
       <c r="E595" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F595" s="25">
         <v>0</v>
@@ -24149,7 +24174,7 @@
         <v>5</v>
       </c>
       <c r="E596" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F596" s="25">
         <v>0</v>
@@ -24172,7 +24197,7 @@
         <v>5</v>
       </c>
       <c r="E597" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F597" s="25">
         <v>0</v>
@@ -24195,7 +24220,7 @@
         <v>5</v>
       </c>
       <c r="E598" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F598" s="25">
         <v>0</v>
@@ -24218,7 +24243,7 @@
         <v>5</v>
       </c>
       <c r="E599" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F599" s="25">
         <v>0</v>
@@ -24241,7 +24266,7 @@
         <v>5</v>
       </c>
       <c r="E600" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F600" s="25">
         <v>0</v>
@@ -24264,7 +24289,7 @@
         <v>5</v>
       </c>
       <c r="E601" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F601" s="25">
         <v>0</v>
@@ -24287,7 +24312,7 @@
         <v>5</v>
       </c>
       <c r="E602" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F602" s="25">
         <v>0</v>
@@ -24310,7 +24335,7 @@
         <v>5</v>
       </c>
       <c r="E603" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F603" s="25">
         <v>0</v>
@@ -24333,7 +24358,7 @@
         <v>5</v>
       </c>
       <c r="E604" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F604" s="25">
         <v>0</v>
@@ -24356,7 +24381,7 @@
         <v>5</v>
       </c>
       <c r="E605" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F605" s="25">
         <v>0</v>
@@ -24379,7 +24404,7 @@
         <v>5</v>
       </c>
       <c r="E606" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F606" s="25">
         <v>0</v>
@@ -24402,7 +24427,7 @@
         <v>5</v>
       </c>
       <c r="E607" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F607" s="25">
         <v>0</v>
@@ -24425,7 +24450,7 @@
         <v>5</v>
       </c>
       <c r="E608" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F608" s="25">
         <v>0</v>
@@ -24448,7 +24473,7 @@
         <v>5</v>
       </c>
       <c r="E609" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F609" s="25">
         <v>0</v>
@@ -24471,7 +24496,7 @@
         <v>5</v>
       </c>
       <c r="E610" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F610" s="25">
         <v>0</v>
@@ -24494,7 +24519,7 @@
         <v>5</v>
       </c>
       <c r="E611" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F611" s="25">
         <v>0</v>
@@ -24517,7 +24542,7 @@
         <v>5</v>
       </c>
       <c r="E612" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F612" s="25">
         <v>0</v>
@@ -24540,7 +24565,7 @@
         <v>5</v>
       </c>
       <c r="E613" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F613" s="25">
         <v>0</v>
@@ -24563,7 +24588,7 @@
         <v>5</v>
       </c>
       <c r="E614" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F614" s="25">
         <v>0</v>
@@ -24586,7 +24611,7 @@
         <v>5</v>
       </c>
       <c r="E615" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F615" s="25">
         <v>0</v>
@@ -24609,7 +24634,7 @@
         <v>5</v>
       </c>
       <c r="E616" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F616" s="25">
         <v>0</v>
@@ -24632,7 +24657,7 @@
         <v>5</v>
       </c>
       <c r="E617" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F617" s="25">
         <v>0</v>
@@ -24655,7 +24680,7 @@
         <v>5</v>
       </c>
       <c r="E618" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F618" s="25">
         <v>0</v>
@@ -24678,7 +24703,7 @@
         <v>5</v>
       </c>
       <c r="E619" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F619" s="25">
         <v>0</v>
@@ -24701,7 +24726,7 @@
         <v>5</v>
       </c>
       <c r="E620" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F620" s="25">
         <v>0</v>
@@ -24724,7 +24749,7 @@
         <v>5</v>
       </c>
       <c r="E621" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F621" s="25">
         <v>0</v>
@@ -24747,7 +24772,7 @@
         <v>5</v>
       </c>
       <c r="E622" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F622" s="25">
         <v>0</v>
@@ -24770,7 +24795,7 @@
         <v>5</v>
       </c>
       <c r="E623" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F623" s="25">
         <v>0</v>
@@ -24793,7 +24818,7 @@
         <v>5</v>
       </c>
       <c r="E624" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F624" s="25">
         <v>0</v>
@@ -24816,7 +24841,7 @@
         <v>5</v>
       </c>
       <c r="E625" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F625" s="25">
         <v>0</v>
@@ -24839,7 +24864,7 @@
         <v>5</v>
       </c>
       <c r="E626" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F626" s="25">
         <v>0</v>
@@ -24862,7 +24887,7 @@
         <v>5</v>
       </c>
       <c r="E627" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F627" s="25">
         <v>0</v>
@@ -24885,7 +24910,7 @@
         <v>5</v>
       </c>
       <c r="E628" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F628" s="25">
         <v>0</v>
@@ -24908,7 +24933,7 @@
         <v>5</v>
       </c>
       <c r="E629" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F629" s="25">
         <v>0</v>
@@ -24931,7 +24956,7 @@
         <v>5</v>
       </c>
       <c r="E630" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F630" s="25">
         <v>0</v>
@@ -24954,7 +24979,7 @@
         <v>5</v>
       </c>
       <c r="E631" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F631" s="25">
         <v>0</v>
@@ -24977,7 +25002,7 @@
         <v>5</v>
       </c>
       <c r="E632" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F632" s="25">
         <v>0</v>
@@ -25000,7 +25025,7 @@
         <v>5</v>
       </c>
       <c r="E633" s="25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F633" s="25">
         <v>0</v>

--- a/mygame.xlsx
+++ b/mygame.xlsx
@@ -572,10 +572,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上升因素概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -803,7 +799,11 @@
     <t>6_12</t>
   </si>
   <si>
-    <t>在变中寻不变</t>
+    <t>上升因素概率（大于0则每出一个减少概率小于0则每出现一个概率增加）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以不变应万变</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2064,7 +2064,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="30">
@@ -4090,10 +4090,10 @@
         <v>75</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="67.5">
@@ -4152,72 +4152,72 @@
         <v>71</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="G3" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="H3" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="I3" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="J3" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="K3" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="L3" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="M3" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="N3" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="O3" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="P3" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="Q3" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="R3" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="S3" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="T3" s="25" t="s">
         <v>163</v>
-      </c>
-      <c r="T3" s="25" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5666,7 +5666,7 @@
         <v>60</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H27" s="13">
         <v>0</v>
@@ -6720,10 +6720,10 @@
         <v>0</v>
       </c>
       <c r="G44" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="H44" s="13" t="s">
         <v>177</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>178</v>
       </c>
       <c r="I44" s="13">
         <v>0</v>
@@ -6782,10 +6782,10 @@
         <v>0</v>
       </c>
       <c r="G45" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="H45" s="13" t="s">
         <v>179</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>180</v>
       </c>
       <c r="I45" s="13">
         <v>0</v>
@@ -6844,10 +6844,10 @@
         <v>0</v>
       </c>
       <c r="G46" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H46" s="13" t="s">
         <v>181</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>182</v>
       </c>
       <c r="I46" s="13">
         <v>0</v>
@@ -6906,10 +6906,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I47" s="13">
         <v>0</v>
@@ -6968,10 +6968,10 @@
         <v>0</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I48" s="13">
         <v>0</v>
@@ -7030,10 +7030,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I49" s="13">
         <v>0</v>
@@ -7101,10 +7101,10 @@
         <v>0</v>
       </c>
       <c r="J50" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="K50" s="13" t="s">
         <v>177</v>
-      </c>
-      <c r="K50" s="13" t="s">
-        <v>178</v>
       </c>
       <c r="L50" s="13">
         <v>0</v>
@@ -7163,10 +7163,10 @@
         <v>0</v>
       </c>
       <c r="J51" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="K51" s="13" t="s">
         <v>179</v>
-      </c>
-      <c r="K51" s="13" t="s">
-        <v>180</v>
       </c>
       <c r="L51" s="13">
         <v>0</v>
@@ -7225,10 +7225,10 @@
         <v>0</v>
       </c>
       <c r="J52" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="K52" s="13" t="s">
         <v>181</v>
-      </c>
-      <c r="K52" s="13" t="s">
-        <v>182</v>
       </c>
       <c r="L52" s="13">
         <v>0</v>
@@ -7287,10 +7287,10 @@
         <v>0</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L53" s="13">
         <v>0</v>
@@ -7349,10 +7349,10 @@
         <v>0</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L54" s="13">
         <v>0</v>
@@ -7411,10 +7411,10 @@
         <v>0</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K55" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L55" s="13">
         <v>0</v>
@@ -7464,10 +7464,10 @@
         <v>120</v>
       </c>
       <c r="G56" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H56" s="13" t="s">
         <v>181</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>182</v>
       </c>
       <c r="I56" s="13">
         <v>0</v>
@@ -7526,10 +7526,10 @@
         <v>120</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I57" s="13">
         <v>0</v>
@@ -7588,10 +7588,10 @@
         <v>150</v>
       </c>
       <c r="G58" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="H58" s="13" t="s">
         <v>179</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>180</v>
       </c>
       <c r="I58" s="13">
         <v>0</v>
@@ -7650,10 +7650,10 @@
         <v>150</v>
       </c>
       <c r="G59" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H59" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="H59" s="13" t="s">
-        <v>181</v>
       </c>
       <c r="I59" s="13">
         <v>0</v>
@@ -7845,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K62" s="13" t="s">
         <v>86</v>
@@ -7960,7 +7960,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13">
@@ -8020,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H65" s="13"/>
       <c r="I65" s="13">
@@ -8080,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H66" s="13">
         <v>0</v>
@@ -8142,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H67" s="13">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>100</v>
       </c>
       <c r="K76" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L76" s="13">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>100</v>
       </c>
       <c r="K77" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L77" s="13">
         <v>0</v>
@@ -8836,7 +8836,7 @@
         <v>100</v>
       </c>
       <c r="K78" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L78" s="13">
         <v>0</v>
@@ -8898,7 +8898,7 @@
         <v>100</v>
       </c>
       <c r="K79" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L79" s="13">
         <v>0</v>
@@ -8948,19 +8948,19 @@
         <v>0</v>
       </c>
       <c r="G80" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="H80" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="H80" s="13" t="s">
+      <c r="I80" s="13">
+        <v>1</v>
+      </c>
+      <c r="J80" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="I80" s="13">
-        <v>1</v>
-      </c>
-      <c r="J80" s="13" t="s">
+      <c r="K80" s="13" t="s">
         <v>187</v>
-      </c>
-      <c r="K80" s="13" t="s">
-        <v>188</v>
       </c>
       <c r="L80" s="13">
         <v>0</v>
@@ -9010,19 +9010,19 @@
         <v>0</v>
       </c>
       <c r="G81" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="H81" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="H81" s="13" t="s">
+      <c r="I81" s="13">
+        <v>2</v>
+      </c>
+      <c r="J81" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="I81" s="13">
-        <v>2</v>
-      </c>
-      <c r="J81" s="13" t="s">
+      <c r="K81" s="13" t="s">
         <v>191</v>
-      </c>
-      <c r="K81" s="13" t="s">
-        <v>192</v>
       </c>
       <c r="L81" s="13">
         <v>0</v>
@@ -9196,19 +9196,19 @@
         <v>151</v>
       </c>
       <c r="G84" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="H84" s="13">
+        <v>0</v>
+      </c>
+      <c r="I84" s="13">
+        <v>0</v>
+      </c>
+      <c r="J84" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="H84" s="13">
-        <v>0</v>
-      </c>
-      <c r="I84" s="13">
-        <v>0</v>
-      </c>
-      <c r="J84" s="13" t="s">
+      <c r="K84" s="13" t="s">
         <v>187</v>
-      </c>
-      <c r="K84" s="13" t="s">
-        <v>188</v>
       </c>
       <c r="L84" s="13">
         <v>0</v>
@@ -9258,19 +9258,19 @@
         <v>152</v>
       </c>
       <c r="G85" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="H85" s="13">
+        <v>0</v>
+      </c>
+      <c r="I85" s="13">
+        <v>0</v>
+      </c>
+      <c r="J85" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="H85" s="13">
-        <v>0</v>
-      </c>
-      <c r="I85" s="13">
-        <v>0</v>
-      </c>
-      <c r="J85" s="13" t="s">
+      <c r="K85" s="13" t="s">
         <v>191</v>
-      </c>
-      <c r="K85" s="13" t="s">
-        <v>192</v>
       </c>
       <c r="L85" s="13">
         <v>0</v>
@@ -9320,16 +9320,16 @@
         <v>150</v>
       </c>
       <c r="G86" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="H86" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="H86" s="13" t="s">
+      <c r="I86" s="13">
+        <v>1</v>
+      </c>
+      <c r="J86" s="13" t="s">
         <v>186</v>
-      </c>
-      <c r="I86" s="13">
-        <v>1</v>
-      </c>
-      <c r="J86" s="13" t="s">
-        <v>187</v>
       </c>
       <c r="K86" s="13">
         <v>0</v>
@@ -9382,16 +9382,16 @@
         <v>150</v>
       </c>
       <c r="G87" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="H87" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="H87" s="13" t="s">
+      <c r="I87" s="13">
+        <v>1</v>
+      </c>
+      <c r="J87" s="13" t="s">
         <v>186</v>
-      </c>
-      <c r="I87" s="13">
-        <v>1</v>
-      </c>
-      <c r="J87" s="13" t="s">
-        <v>187</v>
       </c>
       <c r="K87" s="13">
         <v>0</v>
@@ -9444,16 +9444,16 @@
         <v>150</v>
       </c>
       <c r="G88" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="H88" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="H88" s="13" t="s">
+      <c r="I88" s="13">
+        <v>1</v>
+      </c>
+      <c r="J88" s="13" t="s">
         <v>186</v>
-      </c>
-      <c r="I88" s="13">
-        <v>1</v>
-      </c>
-      <c r="J88" s="13" t="s">
-        <v>187</v>
       </c>
       <c r="K88" s="13">
         <v>0</v>
@@ -9506,16 +9506,16 @@
         <v>150</v>
       </c>
       <c r="G89" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="H89" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="H89" s="13" t="s">
+      <c r="I89" s="13">
+        <v>1</v>
+      </c>
+      <c r="J89" s="13" t="s">
         <v>186</v>
-      </c>
-      <c r="I89" s="13">
-        <v>1</v>
-      </c>
-      <c r="J89" s="13" t="s">
-        <v>187</v>
       </c>
       <c r="K89" s="13">
         <v>0</v>
@@ -9568,19 +9568,19 @@
         <v>150</v>
       </c>
       <c r="G90" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="H90" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="H90" s="13" t="s">
+      <c r="I90" s="13">
+        <v>2</v>
+      </c>
+      <c r="J90" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="I90" s="13">
-        <v>2</v>
-      </c>
-      <c r="J90" s="13" t="s">
+      <c r="K90" s="13" t="s">
         <v>191</v>
-      </c>
-      <c r="K90" s="13" t="s">
-        <v>192</v>
       </c>
       <c r="L90" s="13">
         <v>0</v>
@@ -9630,19 +9630,19 @@
         <v>150</v>
       </c>
       <c r="G91" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="H91" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="H91" s="13" t="s">
+      <c r="I91" s="13">
+        <v>2</v>
+      </c>
+      <c r="J91" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="I91" s="13">
-        <v>2</v>
-      </c>
-      <c r="J91" s="13" t="s">
+      <c r="K91" s="13" t="s">
         <v>191</v>
-      </c>
-      <c r="K91" s="13" t="s">
-        <v>192</v>
       </c>
       <c r="L91" s="13">
         <v>0</v>
@@ -9692,19 +9692,19 @@
         <v>150</v>
       </c>
       <c r="G92" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="H92" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="H92" s="13" t="s">
+      <c r="I92" s="13">
+        <v>2</v>
+      </c>
+      <c r="J92" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="13">
-        <v>2</v>
-      </c>
-      <c r="J92" s="13" t="s">
+      <c r="K92" s="13" t="s">
         <v>191</v>
-      </c>
-      <c r="K92" s="13" t="s">
-        <v>192</v>
       </c>
       <c r="L92" s="13">
         <v>0</v>
@@ -9754,19 +9754,19 @@
         <v>150</v>
       </c>
       <c r="G93" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="H93" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="H93" s="13" t="s">
+      <c r="I93" s="13">
+        <v>2</v>
+      </c>
+      <c r="J93" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="I93" s="13">
-        <v>2</v>
-      </c>
-      <c r="J93" s="13" t="s">
+      <c r="K93" s="13" t="s">
         <v>191</v>
-      </c>
-      <c r="K93" s="13" t="s">
-        <v>192</v>
       </c>
       <c r="L93" s="13">
         <v>0</v>
@@ -9810,7 +9810,7 @@
   <dimension ref="A1:H633"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9844,10 +9844,10 @@
         <v>131</v>
       </c>
       <c r="G1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="27">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="94.5">
       <c r="A2" s="12" t="s">
         <v>46</v>
       </c>
@@ -9858,7 +9858,7 @@
         <v>73</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>132</v>
@@ -9867,30 +9867,30 @@
         <v>130</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="12" customFormat="1">
       <c r="A3" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>139</v>
-      </c>
       <c r="G3" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -11547,7 +11547,7 @@
         <v>0</v>
       </c>
       <c r="H74" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -11573,7 +11573,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -11599,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -11625,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -11651,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="H78" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -11677,7 +11677,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -11703,7 +11703,7 @@
         <v>0</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="1" customFormat="1">
@@ -11729,7 +11729,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="1" customFormat="1">
@@ -11755,7 +11755,7 @@
         <v>0</v>
       </c>
       <c r="H82" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="1" customFormat="1">
@@ -11781,7 +11781,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="1" customFormat="1">
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="1" customFormat="1">
@@ -11833,7 +11833,7 @@
         <v>0</v>
       </c>
       <c r="H85" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="1" customFormat="1">
@@ -11859,7 +11859,7 @@
         <v>0</v>
       </c>
       <c r="H86" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:8" s="1" customFormat="1">
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="H87" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -11911,7 +11911,7 @@
         <v>0</v>
       </c>
       <c r="H88" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -11937,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -11963,7 +11963,7 @@
         <v>0</v>
       </c>
       <c r="H90" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -11989,7 +11989,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -12015,7 +12015,7 @@
         <v>0</v>
       </c>
       <c r="H92" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -12041,7 +12041,7 @@
         <v>0</v>
       </c>
       <c r="H93" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="1" customFormat="1">
@@ -12093,7 +12093,7 @@
         <v>0</v>
       </c>
       <c r="H95" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:8" s="1" customFormat="1">
@@ -12119,7 +12119,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="1:8" s="1" customFormat="1">
@@ -12145,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="H97" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:8" s="1" customFormat="1">
@@ -12171,7 +12171,7 @@
         <v>0</v>
       </c>
       <c r="H98" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:8" s="1" customFormat="1">
@@ -12197,7 +12197,7 @@
         <v>0</v>
       </c>
       <c r="H99" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:8" s="1" customFormat="1">
@@ -12223,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="101" spans="1:8" s="1" customFormat="1">
@@ -12249,7 +12249,7 @@
         <v>0</v>
       </c>
       <c r="H101" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -12275,7 +12275,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -12301,7 +12301,7 @@
         <v>0</v>
       </c>
       <c r="H103" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -12327,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -12353,7 +12353,7 @@
         <v>0</v>
       </c>
       <c r="H105" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -12379,7 +12379,7 @@
         <v>0</v>
       </c>
       <c r="H106" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="H107" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -12431,7 +12431,7 @@
         <v>0</v>
       </c>
       <c r="H108" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:8" s="1" customFormat="1">
@@ -12457,7 +12457,7 @@
         <v>0</v>
       </c>
       <c r="H109" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110" spans="1:8" s="1" customFormat="1">
@@ -12483,7 +12483,7 @@
         <v>0</v>
       </c>
       <c r="H110" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111" spans="1:8" s="1" customFormat="1">
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="H111" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" spans="1:8" s="1" customFormat="1">
@@ -12535,7 +12535,7 @@
         <v>0</v>
       </c>
       <c r="H112" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="1" customFormat="1">
@@ -12561,7 +12561,7 @@
         <v>0</v>
       </c>
       <c r="H113" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="1" customFormat="1">
@@ -12587,7 +12587,7 @@
         <v>0</v>
       </c>
       <c r="H114" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="1" customFormat="1">
@@ -12613,7 +12613,7 @@
         <v>0</v>
       </c>
       <c r="H115" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -12639,7 +12639,7 @@
         <v>0</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -12665,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -12691,7 +12691,7 @@
         <v>0</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -12717,7 +12717,7 @@
         <v>0</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -12743,7 +12743,7 @@
         <v>0</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -12769,7 +12769,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -12795,7 +12795,7 @@
         <v>0</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123" spans="1:8" s="1" customFormat="1">
@@ -12821,7 +12821,7 @@
         <v>0</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="124" spans="1:8" s="1" customFormat="1">
@@ -12847,7 +12847,7 @@
         <v>0</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125" spans="1:8" s="1" customFormat="1">
@@ -12873,7 +12873,7 @@
         <v>0</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="126" spans="1:8" s="1" customFormat="1">
@@ -12899,7 +12899,7 @@
         <v>0</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="127" spans="1:8" s="1" customFormat="1">
@@ -12925,7 +12925,7 @@
         <v>0</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="128" spans="1:8" s="1" customFormat="1">
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="129" spans="1:8" s="1" customFormat="1">
@@ -12977,7 +12977,7 @@
         <v>0</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -13003,7 +13003,7 @@
         <v>0</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -13029,7 +13029,7 @@
         <v>0</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -13055,7 +13055,7 @@
         <v>0</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -13081,7 +13081,7 @@
         <v>0</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -13107,7 +13107,7 @@
         <v>0</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -13133,7 +13133,7 @@
         <v>0</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -13159,7 +13159,7 @@
         <v>0</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="137" spans="1:8" s="1" customFormat="1">
@@ -13185,7 +13185,7 @@
         <v>0</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="138" spans="1:8" s="1" customFormat="1">
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="139" spans="1:8" s="1" customFormat="1">
@@ -13237,7 +13237,7 @@
         <v>0</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="140" spans="1:8" s="1" customFormat="1">
@@ -13263,7 +13263,7 @@
         <v>0</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="141" spans="1:8" s="1" customFormat="1">
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="142" spans="1:8" s="1" customFormat="1">
@@ -13315,7 +13315,7 @@
         <v>0</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="143" spans="1:8" s="1" customFormat="1">
@@ -13341,7 +13341,7 @@
         <v>0</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -13393,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -13419,7 +13419,7 @@
         <v>0</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -13445,7 +13445,7 @@
         <v>0</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -13471,7 +13471,7 @@
         <v>0</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -13497,7 +13497,7 @@
         <v>0</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -13523,7 +13523,7 @@
         <v>0</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="151" spans="1:8" s="1" customFormat="1">
@@ -13549,7 +13549,7 @@
         <v>0</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:8" s="1" customFormat="1">
@@ -13575,7 +13575,7 @@
         <v>0</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153" spans="1:8" s="1" customFormat="1">
@@ -13601,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:8" s="1" customFormat="1">
@@ -13627,7 +13627,7 @@
         <v>0</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:8" s="1" customFormat="1">
@@ -13653,7 +13653,7 @@
         <v>0</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156" spans="1:8" s="1" customFormat="1">
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157" spans="1:8" s="1" customFormat="1">
@@ -13705,7 +13705,7 @@
         <v>0</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -13731,7 +13731,7 @@
         <v>0</v>
       </c>
       <c r="H158" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -13757,7 +13757,7 @@
         <v>0</v>
       </c>
       <c r="H159" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -13783,7 +13783,7 @@
         <v>0</v>
       </c>
       <c r="H160" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -13809,7 +13809,7 @@
         <v>0</v>
       </c>
       <c r="H161" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -13835,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="H162" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -13861,7 +13861,7 @@
         <v>0</v>
       </c>
       <c r="H163" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -13887,7 +13887,7 @@
         <v>0</v>
       </c>
       <c r="H164" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="165" spans="1:8" s="1" customFormat="1">
@@ -13913,7 +13913,7 @@
         <v>0</v>
       </c>
       <c r="H165" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="166" spans="1:8" s="1" customFormat="1">
@@ -13939,7 +13939,7 @@
         <v>0</v>
       </c>
       <c r="H166" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="167" spans="1:8" s="1" customFormat="1">
@@ -13965,7 +13965,7 @@
         <v>0</v>
       </c>
       <c r="H167" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="168" spans="1:8" s="1" customFormat="1">
@@ -13991,7 +13991,7 @@
         <v>0</v>
       </c>
       <c r="H168" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="169" spans="1:8" s="1" customFormat="1">
@@ -14017,7 +14017,7 @@
         <v>0</v>
       </c>
       <c r="H169" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="170" spans="1:8" s="1" customFormat="1">
@@ -14043,7 +14043,7 @@
         <v>0</v>
       </c>
       <c r="H170" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="171" spans="1:8" s="1" customFormat="1">
@@ -14069,7 +14069,7 @@
         <v>0</v>
       </c>
       <c r="H171" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="H172" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -14121,7 +14121,7 @@
         <v>0</v>
       </c>
       <c r="H173" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -14147,7 +14147,7 @@
         <v>0</v>
       </c>
       <c r="H174" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -14173,7 +14173,7 @@
         <v>0</v>
       </c>
       <c r="H175" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -14199,7 +14199,7 @@
         <v>0</v>
       </c>
       <c r="H176" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -14225,7 +14225,7 @@
         <v>0</v>
       </c>
       <c r="H177" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -14251,7 +14251,7 @@
         <v>0</v>
       </c>
       <c r="H178" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="179" spans="1:8" s="1" customFormat="1">
@@ -14277,7 +14277,7 @@
         <v>0</v>
       </c>
       <c r="H179" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="180" spans="1:8" s="1" customFormat="1">
@@ -14303,7 +14303,7 @@
         <v>0</v>
       </c>
       <c r="H180" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="181" spans="1:8" s="1" customFormat="1">
@@ -14329,7 +14329,7 @@
         <v>0</v>
       </c>
       <c r="H181" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="182" spans="1:8" s="1" customFormat="1">
@@ -14355,7 +14355,7 @@
         <v>0</v>
       </c>
       <c r="H182" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="183" spans="1:8" s="1" customFormat="1">
@@ -14381,7 +14381,7 @@
         <v>0</v>
       </c>
       <c r="H183" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="184" spans="1:8" s="1" customFormat="1">
@@ -14407,7 +14407,7 @@
         <v>0</v>
       </c>
       <c r="H184" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="185" spans="1:8" s="1" customFormat="1">
@@ -14433,7 +14433,7 @@
         <v>0</v>
       </c>
       <c r="H185" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -14459,7 +14459,7 @@
         <v>0</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -14485,7 +14485,7 @@
         <v>0</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -14511,7 +14511,7 @@
         <v>0</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -14537,7 +14537,7 @@
         <v>0</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -14563,7 +14563,7 @@
         <v>0</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -14589,7 +14589,7 @@
         <v>0</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -14615,7 +14615,7 @@
         <v>0</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="193" spans="1:8" s="1" customFormat="1">
@@ -14641,7 +14641,7 @@
         <v>0</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="194" spans="1:8" s="1" customFormat="1">
@@ -14667,7 +14667,7 @@
         <v>0</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="195" spans="1:8" s="1" customFormat="1">
@@ -14693,7 +14693,7 @@
         <v>0</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="196" spans="1:8" s="1" customFormat="1">
@@ -14719,7 +14719,7 @@
         <v>0</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="197" spans="1:8" s="1" customFormat="1">
@@ -14745,7 +14745,7 @@
         <v>0</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="198" spans="1:8" s="1" customFormat="1">
@@ -14771,7 +14771,7 @@
         <v>0</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="199" spans="1:8" s="1" customFormat="1">
@@ -14797,7 +14797,7 @@
         <v>0</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -14823,7 +14823,7 @@
         <v>0</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -14849,7 +14849,7 @@
         <v>0</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -14875,7 +14875,7 @@
         <v>0</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -14901,7 +14901,7 @@
         <v>0</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -14927,7 +14927,7 @@
         <v>0</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -14953,7 +14953,7 @@
         <v>0</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -14979,7 +14979,7 @@
         <v>0</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="207" spans="1:8" s="1" customFormat="1">
@@ -15005,7 +15005,7 @@
         <v>0</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="208" spans="1:8" s="1" customFormat="1">
@@ -15031,7 +15031,7 @@
         <v>0</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="209" spans="1:8" s="1" customFormat="1">
@@ -15057,7 +15057,7 @@
         <v>0</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="210" spans="1:8" s="1" customFormat="1">
@@ -15083,7 +15083,7 @@
         <v>0</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="211" spans="1:8" s="1" customFormat="1">
@@ -15109,7 +15109,7 @@
         <v>0</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="212" spans="1:8" s="1" customFormat="1">
@@ -15135,7 +15135,7 @@
         <v>0</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="213" spans="1:8" s="1" customFormat="1">
@@ -15161,7 +15161,7 @@
         <v>0</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -15187,7 +15187,7 @@
         <v>0</v>
       </c>
       <c r="H214" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -15213,7 +15213,7 @@
         <v>2</v>
       </c>
       <c r="H215" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -15239,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="H216" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -15265,7 +15265,7 @@
         <v>2</v>
       </c>
       <c r="H217" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -15291,7 +15291,7 @@
         <v>2</v>
       </c>
       <c r="H218" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -15317,7 +15317,7 @@
         <v>2</v>
       </c>
       <c r="H219" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -15343,7 +15343,7 @@
         <v>2</v>
       </c>
       <c r="H220" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="221" spans="1:8" s="1" customFormat="1">
@@ -15369,7 +15369,7 @@
         <v>0</v>
       </c>
       <c r="H221" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="222" spans="1:8" s="1" customFormat="1">
@@ -15395,7 +15395,7 @@
         <v>5</v>
       </c>
       <c r="H222" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="223" spans="1:8" s="1" customFormat="1">
@@ -15421,7 +15421,7 @@
         <v>0</v>
       </c>
       <c r="H223" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="224" spans="1:8" s="1" customFormat="1">
@@ -15447,7 +15447,7 @@
         <v>5</v>
       </c>
       <c r="H224" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="225" spans="1:8" s="1" customFormat="1">
@@ -15473,7 +15473,7 @@
         <v>0</v>
       </c>
       <c r="H225" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="226" spans="1:8" s="1" customFormat="1">
@@ -15499,7 +15499,7 @@
         <v>0</v>
       </c>
       <c r="H226" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="227" spans="1:8" s="1" customFormat="1">
@@ -15525,7 +15525,7 @@
         <v>0</v>
       </c>
       <c r="H227" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -15551,7 +15551,7 @@
         <v>0</v>
       </c>
       <c r="H228" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -15577,7 +15577,7 @@
         <v>2</v>
       </c>
       <c r="H229" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -15603,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="H230" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -15629,7 +15629,7 @@
         <v>2</v>
       </c>
       <c r="H231" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -15655,7 +15655,7 @@
         <v>2</v>
       </c>
       <c r="H232" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -15681,7 +15681,7 @@
         <v>2</v>
       </c>
       <c r="H233" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -15707,7 +15707,7 @@
         <v>2</v>
       </c>
       <c r="H234" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="235" spans="1:8" s="1" customFormat="1">
@@ -15733,7 +15733,7 @@
         <v>0</v>
       </c>
       <c r="H235" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="236" spans="1:8" s="1" customFormat="1">
@@ -15759,7 +15759,7 @@
         <v>5</v>
       </c>
       <c r="H236" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="237" spans="1:8" s="1" customFormat="1">
@@ -15785,7 +15785,7 @@
         <v>0</v>
       </c>
       <c r="H237" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="238" spans="1:8" s="1" customFormat="1">
@@ -15811,7 +15811,7 @@
         <v>5</v>
       </c>
       <c r="H238" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="239" spans="1:8" s="1" customFormat="1">
@@ -15837,7 +15837,7 @@
         <v>0</v>
       </c>
       <c r="H239" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="240" spans="1:8" s="1" customFormat="1">
@@ -15863,7 +15863,7 @@
         <v>0</v>
       </c>
       <c r="H240" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="241" spans="1:8" s="1" customFormat="1">
@@ -15889,7 +15889,7 @@
         <v>0</v>
       </c>
       <c r="H241" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -15915,7 +15915,7 @@
         <v>2</v>
       </c>
       <c r="H242" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -15941,7 +15941,7 @@
         <v>2</v>
       </c>
       <c r="H243" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -15967,7 +15967,7 @@
         <v>2</v>
       </c>
       <c r="H244" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -15993,7 +15993,7 @@
         <v>2</v>
       </c>
       <c r="H245" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -16019,7 +16019,7 @@
         <v>0</v>
       </c>
       <c r="H246" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -16045,7 +16045,7 @@
         <v>2</v>
       </c>
       <c r="H247" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -16071,7 +16071,7 @@
         <v>0</v>
       </c>
       <c r="H248" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="249" spans="1:8" s="1" customFormat="1">
@@ -16097,7 +16097,7 @@
         <v>5</v>
       </c>
       <c r="H249" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="250" spans="1:8" s="1" customFormat="1">
@@ -16123,7 +16123,7 @@
         <v>0</v>
       </c>
       <c r="H250" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="251" spans="1:8" s="1" customFormat="1">
@@ -16149,7 +16149,7 @@
         <v>0</v>
       </c>
       <c r="H251" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="252" spans="1:8" s="1" customFormat="1">
@@ -16175,7 +16175,7 @@
         <v>0</v>
       </c>
       <c r="H252" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="253" spans="1:8" s="1" customFormat="1">
@@ -16201,7 +16201,7 @@
         <v>0</v>
       </c>
       <c r="H253" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="254" spans="1:8" s="1" customFormat="1">
@@ -16227,7 +16227,7 @@
         <v>5</v>
       </c>
       <c r="H254" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="255" spans="1:8" s="1" customFormat="1">
@@ -16253,7 +16253,7 @@
         <v>0</v>
       </c>
       <c r="H255" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -16279,7 +16279,7 @@
         <v>2</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -16305,7 +16305,7 @@
         <v>0</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -16331,7 +16331,7 @@
         <v>2</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -16357,7 +16357,7 @@
         <v>0</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -16383,7 +16383,7 @@
         <v>0</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -16409,7 +16409,7 @@
         <v>0</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -16435,7 +16435,7 @@
         <v>0</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="263" spans="1:8" s="1" customFormat="1">
@@ -16461,7 +16461,7 @@
         <v>0</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="264" spans="1:8" s="1" customFormat="1">
@@ -16487,7 +16487,7 @@
         <v>5</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="265" spans="1:8" s="1" customFormat="1">
@@ -16513,7 +16513,7 @@
         <v>0</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="266" spans="1:8" s="1" customFormat="1">
@@ -16539,7 +16539,7 @@
         <v>5</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="267" spans="1:8" s="1" customFormat="1">
@@ -16565,7 +16565,7 @@
         <v>0</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="268" spans="1:8" s="1" customFormat="1">
@@ -16591,7 +16591,7 @@
         <v>0</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="269" spans="1:8" s="1" customFormat="1">
@@ -16617,7 +16617,7 @@
         <v>0</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -16643,7 +16643,7 @@
         <v>2</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -16669,7 +16669,7 @@
         <v>0</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -16695,7 +16695,7 @@
         <v>2</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -16721,7 +16721,7 @@
         <v>0</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -16747,7 +16747,7 @@
         <v>0</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -16773,7 +16773,7 @@
         <v>0</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -16799,7 +16799,7 @@
         <v>0</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="277" spans="1:8" s="1" customFormat="1">
@@ -16825,7 +16825,7 @@
         <v>0</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="278" spans="1:8" s="1" customFormat="1">
@@ -16851,7 +16851,7 @@
         <v>5</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="279" spans="1:8" s="1" customFormat="1">
@@ -16877,7 +16877,7 @@
         <v>0</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="280" spans="1:8" s="1" customFormat="1">
@@ -16903,7 +16903,7 @@
         <v>5</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="281" spans="1:8" s="1" customFormat="1">
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="282" spans="1:8" s="1" customFormat="1">
@@ -16955,7 +16955,7 @@
         <v>0</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="283" spans="1:8" s="1" customFormat="1">
@@ -16981,7 +16981,7 @@
         <v>0</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="284" spans="1:8">

--- a/mygame.xlsx
+++ b/mygame.xlsx
@@ -9809,8 +9809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H633"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10086,7 +10086,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E11" s="25">
         <v>15</v>
@@ -10109,7 +10109,7 @@
         <v>100</v>
       </c>
       <c r="D12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E12" s="25">
         <v>15</v>
@@ -10132,7 +10132,7 @@
         <v>100</v>
       </c>
       <c r="D13" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E13" s="25">
         <v>15</v>
@@ -10155,7 +10155,7 @@
         <v>100</v>
       </c>
       <c r="D14" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E14" s="25">
         <v>15</v>
@@ -10178,7 +10178,7 @@
         <v>100</v>
       </c>
       <c r="D15" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E15" s="25">
         <v>15</v>
@@ -10201,7 +10201,7 @@
         <v>100</v>
       </c>
       <c r="D16" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E16" s="25">
         <v>15</v>
@@ -10224,7 +10224,7 @@
         <v>100</v>
       </c>
       <c r="D17" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E17" s="25">
         <v>15</v>
@@ -10247,7 +10247,7 @@
         <v>100</v>
       </c>
       <c r="D18" s="25">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E18" s="25">
         <v>15</v>
@@ -10270,7 +10270,7 @@
         <v>100</v>
       </c>
       <c r="D19" s="25">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E19" s="25">
         <v>15</v>
@@ -10293,7 +10293,7 @@
         <v>100</v>
       </c>
       <c r="D20" s="25">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E20" s="25">
         <v>15</v>
@@ -10316,7 +10316,7 @@
         <v>100</v>
       </c>
       <c r="D21" s="25">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E21" s="25">
         <v>15</v>
@@ -10339,7 +10339,7 @@
         <v>100</v>
       </c>
       <c r="D22" s="25">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E22" s="25">
         <v>15</v>
@@ -10362,7 +10362,7 @@
         <v>100</v>
       </c>
       <c r="D23" s="25">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E23" s="25">
         <v>15</v>
@@ -10385,7 +10385,7 @@
         <v>100</v>
       </c>
       <c r="D24" s="25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E24" s="25">
         <v>15</v>
@@ -10408,7 +10408,7 @@
         <v>100</v>
       </c>
       <c r="D25" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E25" s="25">
         <v>15</v>
@@ -10431,7 +10431,7 @@
         <v>100</v>
       </c>
       <c r="D26" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E26" s="25">
         <v>15</v>
@@ -10454,7 +10454,7 @@
         <v>100</v>
       </c>
       <c r="D27" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E27" s="25">
         <v>15</v>
@@ -10477,7 +10477,7 @@
         <v>100</v>
       </c>
       <c r="D28" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E28" s="25">
         <v>15</v>
@@ -10500,7 +10500,7 @@
         <v>100</v>
       </c>
       <c r="D29" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E29" s="25">
         <v>15</v>
@@ -10523,7 +10523,7 @@
         <v>100</v>
       </c>
       <c r="D30" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E30" s="25">
         <v>15</v>
@@ -10546,7 +10546,7 @@
         <v>100</v>
       </c>
       <c r="D31" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E31" s="25">
         <v>15</v>
@@ -10569,7 +10569,7 @@
         <v>100</v>
       </c>
       <c r="D32" s="25">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E32" s="25">
         <v>15</v>
@@ -10592,7 +10592,7 @@
         <v>100</v>
       </c>
       <c r="D33" s="25">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E33" s="25">
         <v>15</v>
@@ -10615,7 +10615,7 @@
         <v>100</v>
       </c>
       <c r="D34" s="25">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E34" s="25">
         <v>15</v>
@@ -10638,7 +10638,7 @@
         <v>100</v>
       </c>
       <c r="D35" s="25">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E35" s="25">
         <v>15</v>
@@ -10661,7 +10661,7 @@
         <v>100</v>
       </c>
       <c r="D36" s="25">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E36" s="25">
         <v>15</v>
@@ -10684,7 +10684,7 @@
         <v>100</v>
       </c>
       <c r="D37" s="25">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E37" s="25">
         <v>15</v>
@@ -10707,7 +10707,7 @@
         <v>100</v>
       </c>
       <c r="D38" s="25">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E38" s="25">
         <v>15</v>

--- a/mygame.xlsx
+++ b/mygame.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="196">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -804,6 +804,14 @@
   </si>
   <si>
     <t>以不变应万变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现越多，概率越大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现越多，概率起小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4012,8 +4020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T93"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J81" sqref="J81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K93" sqref="J90:K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9809,8 +9817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H633"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10086,7 +10094,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E11" s="25">
         <v>15</v>
@@ -10096,6 +10104,9 @@
       </c>
       <c r="G11" s="1">
         <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1">
@@ -10109,7 +10120,7 @@
         <v>100</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E12" s="25">
         <v>15</v>
@@ -10119,6 +10130,9 @@
       </c>
       <c r="G12" s="1">
         <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1">
@@ -10132,7 +10146,7 @@
         <v>100</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E13" s="25">
         <v>15</v>
@@ -10142,6 +10156,9 @@
       </c>
       <c r="G13" s="1">
         <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1">
@@ -10155,7 +10172,7 @@
         <v>100</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E14" s="25">
         <v>15</v>
@@ -10165,6 +10182,9 @@
       </c>
       <c r="G14" s="1">
         <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1">
@@ -10178,7 +10198,7 @@
         <v>100</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E15" s="25">
         <v>15</v>
@@ -10188,6 +10208,9 @@
       </c>
       <c r="G15" s="1">
         <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1">
@@ -10201,7 +10224,7 @@
         <v>100</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E16" s="25">
         <v>15</v>
@@ -10212,8 +10235,11 @@
       <c r="G16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" s="1" customFormat="1">
+      <c r="H16" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -10224,7 +10250,7 @@
         <v>100</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E17" s="25">
         <v>15</v>
@@ -10235,8 +10261,11 @@
       <c r="G17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="25">
         <v>3</v>
       </c>
@@ -10247,7 +10276,7 @@
         <v>100</v>
       </c>
       <c r="D18" s="25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E18" s="25">
         <v>15</v>
@@ -10258,8 +10287,11 @@
       <c r="G18" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="25">
         <v>3</v>
       </c>
@@ -10270,7 +10302,7 @@
         <v>100</v>
       </c>
       <c r="D19" s="25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E19" s="25">
         <v>15</v>
@@ -10281,8 +10313,11 @@
       <c r="G19" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="25">
         <v>3</v>
       </c>
@@ -10293,7 +10328,7 @@
         <v>100</v>
       </c>
       <c r="D20" s="25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E20" s="25">
         <v>15</v>
@@ -10304,8 +10339,11 @@
       <c r="G20" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="25">
         <v>3</v>
       </c>
@@ -10316,7 +10354,7 @@
         <v>100</v>
       </c>
       <c r="D21" s="25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E21" s="25">
         <v>15</v>
@@ -10327,8 +10365,11 @@
       <c r="G21" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="25">
         <v>3</v>
       </c>
@@ -10339,7 +10380,7 @@
         <v>100</v>
       </c>
       <c r="D22" s="25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E22" s="25">
         <v>15</v>
@@ -10350,8 +10391,11 @@
       <c r="G22" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="25">
         <v>3</v>
       </c>
@@ -10362,7 +10406,7 @@
         <v>100</v>
       </c>
       <c r="D23" s="25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E23" s="25">
         <v>15</v>
@@ -10373,8 +10417,11 @@
       <c r="G23" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="25">
         <v>3</v>
       </c>
@@ -10385,7 +10432,7 @@
         <v>100</v>
       </c>
       <c r="D24" s="25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E24" s="25">
         <v>15</v>
@@ -10396,8 +10443,11 @@
       <c r="G24" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" s="1" customFormat="1">
+      <c r="H24" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1">
       <c r="A25" s="1">
         <v>4</v>
       </c>
@@ -10420,7 +10470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1">
+    <row r="26" spans="1:8" s="1" customFormat="1">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -10443,7 +10493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1">
+    <row r="27" spans="1:8" s="1" customFormat="1">
       <c r="A27" s="1">
         <v>4</v>
       </c>
@@ -10466,7 +10516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="1" customFormat="1">
+    <row r="28" spans="1:8" s="1" customFormat="1">
       <c r="A28" s="1">
         <v>4</v>
       </c>
@@ -10489,7 +10539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="1" customFormat="1">
+    <row r="29" spans="1:8" s="1" customFormat="1">
       <c r="A29" s="1">
         <v>4</v>
       </c>
@@ -10512,7 +10562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="1" customFormat="1">
+    <row r="30" spans="1:8" s="1" customFormat="1">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -10535,7 +10585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="1" customFormat="1">
+    <row r="31" spans="1:8" s="1" customFormat="1">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -10558,7 +10608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" s="25">
         <v>5</v>
       </c>

--- a/mygame.xlsx
+++ b/mygame.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="196">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4021,7 +4021,7 @@
   <dimension ref="A1:T93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K93" sqref="J90:K93"/>
+      <selection activeCell="F13" sqref="A4:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9817,8 +9817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H633"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10457,7 +10457,7 @@
       <c r="C25" s="1">
         <v>100</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="25">
         <v>0</v>
       </c>
       <c r="E25" s="25">
@@ -10468,6 +10468,9 @@
       </c>
       <c r="G25" s="1">
         <v>0</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1">
@@ -10480,7 +10483,7 @@
       <c r="C26" s="1">
         <v>100</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="25">
         <v>0</v>
       </c>
       <c r="E26" s="25">
@@ -10491,6 +10494,9 @@
       </c>
       <c r="G26" s="1">
         <v>0</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1">
@@ -10503,7 +10509,7 @@
       <c r="C27" s="1">
         <v>100</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="25">
         <v>0</v>
       </c>
       <c r="E27" s="25">
@@ -10514,6 +10520,9 @@
       </c>
       <c r="G27" s="1">
         <v>0</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="1" customFormat="1">
@@ -10526,7 +10535,7 @@
       <c r="C28" s="1">
         <v>100</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="25">
         <v>0</v>
       </c>
       <c r="E28" s="25">
@@ -10537,6 +10546,9 @@
       </c>
       <c r="G28" s="1">
         <v>0</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1">
@@ -10549,7 +10561,7 @@
       <c r="C29" s="1">
         <v>100</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="25">
         <v>0</v>
       </c>
       <c r="E29" s="25">
@@ -10560,6 +10572,9 @@
       </c>
       <c r="G29" s="1">
         <v>0</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1">
@@ -10572,7 +10587,7 @@
       <c r="C30" s="1">
         <v>100</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="25">
         <v>0</v>
       </c>
       <c r="E30" s="25">
@@ -10583,6 +10598,9 @@
       </c>
       <c r="G30" s="1">
         <v>0</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1">
@@ -10595,7 +10613,7 @@
       <c r="C31" s="1">
         <v>100</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="25">
         <v>0</v>
       </c>
       <c r="E31" s="25">
@@ -10606,6 +10624,9 @@
       </c>
       <c r="G31" s="1">
         <v>0</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -10618,8 +10639,8 @@
       <c r="C32" s="25">
         <v>100</v>
       </c>
-      <c r="D32" s="25">
-        <v>0</v>
+      <c r="D32" s="1">
+        <v>-5</v>
       </c>
       <c r="E32" s="25">
         <v>15</v>
@@ -10630,8 +10651,11 @@
       <c r="G32" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="25">
         <v>5</v>
       </c>
@@ -10641,8 +10665,8 @@
       <c r="C33" s="25">
         <v>100</v>
       </c>
-      <c r="D33" s="25">
-        <v>0</v>
+      <c r="D33" s="1">
+        <v>-5</v>
       </c>
       <c r="E33" s="25">
         <v>15</v>
@@ -10653,8 +10677,11 @@
       <c r="G33" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="25">
         <v>5</v>
       </c>
@@ -10664,8 +10691,8 @@
       <c r="C34" s="25">
         <v>100</v>
       </c>
-      <c r="D34" s="25">
-        <v>0</v>
+      <c r="D34" s="1">
+        <v>-5</v>
       </c>
       <c r="E34" s="25">
         <v>15</v>
@@ -10676,8 +10703,11 @@
       <c r="G34" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="25">
         <v>5</v>
       </c>
@@ -10687,8 +10717,8 @@
       <c r="C35" s="25">
         <v>100</v>
       </c>
-      <c r="D35" s="25">
-        <v>0</v>
+      <c r="D35" s="1">
+        <v>-5</v>
       </c>
       <c r="E35" s="25">
         <v>15</v>
@@ -10699,8 +10729,11 @@
       <c r="G35" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="25">
         <v>5</v>
       </c>
@@ -10710,8 +10743,8 @@
       <c r="C36" s="25">
         <v>100</v>
       </c>
-      <c r="D36" s="25">
-        <v>0</v>
+      <c r="D36" s="1">
+        <v>-5</v>
       </c>
       <c r="E36" s="25">
         <v>15</v>
@@ -10722,8 +10755,11 @@
       <c r="G36" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="25">
         <v>5</v>
       </c>
@@ -10733,8 +10769,8 @@
       <c r="C37" s="25">
         <v>100</v>
       </c>
-      <c r="D37" s="25">
-        <v>0</v>
+      <c r="D37" s="1">
+        <v>-5</v>
       </c>
       <c r="E37" s="25">
         <v>15</v>
@@ -10745,8 +10781,11 @@
       <c r="G37" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="25">
         <v>5</v>
       </c>
@@ -10756,8 +10795,8 @@
       <c r="C38" s="25">
         <v>100</v>
       </c>
-      <c r="D38" s="25">
-        <v>0</v>
+      <c r="D38" s="1">
+        <v>-5</v>
       </c>
       <c r="E38" s="25">
         <v>15</v>
@@ -10768,8 +10807,11 @@
       <c r="G38" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" s="1" customFormat="1">
+      <c r="H38" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="1" customFormat="1">
       <c r="A39" s="1">
         <v>6</v>
       </c>
@@ -10779,8 +10821,8 @@
       <c r="C39" s="1">
         <v>100</v>
       </c>
-      <c r="D39" s="1">
-        <v>0</v>
+      <c r="D39" s="25">
+        <v>5</v>
       </c>
       <c r="E39" s="25">
         <v>15</v>
@@ -10791,8 +10833,11 @@
       <c r="G39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" s="1" customFormat="1">
+      <c r="H39" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="1" customFormat="1">
       <c r="A40" s="1">
         <v>6</v>
       </c>
@@ -10802,8 +10847,8 @@
       <c r="C40" s="1">
         <v>100</v>
       </c>
-      <c r="D40" s="1">
-        <v>0</v>
+      <c r="D40" s="25">
+        <v>5</v>
       </c>
       <c r="E40" s="25">
         <v>15</v>
@@ -10814,8 +10859,11 @@
       <c r="G40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" s="1" customFormat="1">
+      <c r="H40" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="1" customFormat="1">
       <c r="A41" s="1">
         <v>6</v>
       </c>
@@ -10825,8 +10873,8 @@
       <c r="C41" s="1">
         <v>100</v>
       </c>
-      <c r="D41" s="1">
-        <v>0</v>
+      <c r="D41" s="25">
+        <v>5</v>
       </c>
       <c r="E41" s="25">
         <v>15</v>
@@ -10837,8 +10885,11 @@
       <c r="G41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" s="1" customFormat="1">
+      <c r="H41" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="1" customFormat="1">
       <c r="A42" s="1">
         <v>6</v>
       </c>
@@ -10848,8 +10899,8 @@
       <c r="C42" s="1">
         <v>100</v>
       </c>
-      <c r="D42" s="1">
-        <v>0</v>
+      <c r="D42" s="25">
+        <v>5</v>
       </c>
       <c r="E42" s="25">
         <v>15</v>
@@ -10860,8 +10911,11 @@
       <c r="G42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" s="1" customFormat="1">
+      <c r="H42" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="1" customFormat="1">
       <c r="A43" s="1">
         <v>6</v>
       </c>
@@ -10871,8 +10925,8 @@
       <c r="C43" s="1">
         <v>100</v>
       </c>
-      <c r="D43" s="1">
-        <v>0</v>
+      <c r="D43" s="25">
+        <v>5</v>
       </c>
       <c r="E43" s="25">
         <v>15</v>
@@ -10883,8 +10937,11 @@
       <c r="G43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" s="1" customFormat="1">
+      <c r="H43" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="1" customFormat="1">
       <c r="A44" s="1">
         <v>6</v>
       </c>
@@ -10894,8 +10951,8 @@
       <c r="C44" s="1">
         <v>100</v>
       </c>
-      <c r="D44" s="1">
-        <v>0</v>
+      <c r="D44" s="25">
+        <v>5</v>
       </c>
       <c r="E44" s="25">
         <v>15</v>
@@ -10906,8 +10963,11 @@
       <c r="G44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" s="1" customFormat="1">
+      <c r="H44" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="1" customFormat="1">
       <c r="A45" s="1">
         <v>6</v>
       </c>
@@ -10917,8 +10977,8 @@
       <c r="C45" s="1">
         <v>100</v>
       </c>
-      <c r="D45" s="1">
-        <v>0</v>
+      <c r="D45" s="25">
+        <v>5</v>
       </c>
       <c r="E45" s="25">
         <v>15</v>
@@ -10929,8 +10989,11 @@
       <c r="G45" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="25">
         <v>7</v>
       </c>
@@ -10952,8 +11015,11 @@
       <c r="G46" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="25">
         <v>7</v>
       </c>
@@ -10975,8 +11041,11 @@
       <c r="G47" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="25">
         <v>7</v>
       </c>
@@ -10998,8 +11067,11 @@
       <c r="G48" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="25">
         <v>7</v>
       </c>
@@ -11021,8 +11093,11 @@
       <c r="G49" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="25">
         <v>7</v>
       </c>
@@ -11044,8 +11119,11 @@
       <c r="G50" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="25">
         <v>7</v>
       </c>
@@ -11067,8 +11145,11 @@
       <c r="G51" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="25">
         <v>7</v>
       </c>
@@ -11090,8 +11171,11 @@
       <c r="G52" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" s="1" customFormat="1">
+      <c r="H52" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="1" customFormat="1">
       <c r="A53" s="1">
         <v>8</v>
       </c>
@@ -11102,7 +11186,7 @@
         <v>100</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E53" s="25">
         <v>15</v>
@@ -11113,8 +11197,11 @@
       <c r="G53" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" s="1" customFormat="1">
+      <c r="H53" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="1" customFormat="1">
       <c r="A54" s="1">
         <v>8</v>
       </c>
@@ -11125,7 +11212,7 @@
         <v>100</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E54" s="25">
         <v>15</v>
@@ -11136,8 +11223,11 @@
       <c r="G54" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" s="1" customFormat="1">
+      <c r="H54" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="1" customFormat="1">
       <c r="A55" s="1">
         <v>8</v>
       </c>
@@ -11148,7 +11238,7 @@
         <v>100</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E55" s="25">
         <v>15</v>
@@ -11159,8 +11249,11 @@
       <c r="G55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" s="1" customFormat="1">
+      <c r="H55" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="1" customFormat="1">
       <c r="A56" s="1">
         <v>8</v>
       </c>
@@ -11171,7 +11264,7 @@
         <v>100</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E56" s="25">
         <v>15</v>
@@ -11182,8 +11275,11 @@
       <c r="G56" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" s="1" customFormat="1">
+      <c r="H56" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="1" customFormat="1">
       <c r="A57" s="1">
         <v>8</v>
       </c>
@@ -11194,7 +11290,7 @@
         <v>100</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E57" s="25">
         <v>15</v>
@@ -11205,8 +11301,11 @@
       <c r="G57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" s="1" customFormat="1">
+      <c r="H57" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="1" customFormat="1">
       <c r="A58" s="1">
         <v>8</v>
       </c>
@@ -11217,7 +11316,7 @@
         <v>100</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E58" s="25">
         <v>15</v>
@@ -11228,8 +11327,11 @@
       <c r="G58" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" s="1" customFormat="1">
+      <c r="H58" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="1" customFormat="1">
       <c r="A59" s="1">
         <v>8</v>
       </c>
@@ -11240,7 +11342,7 @@
         <v>100</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E59" s="25">
         <v>15</v>
@@ -11251,8 +11353,11 @@
       <c r="G59" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="25">
         <v>9</v>
       </c>
@@ -11274,8 +11379,11 @@
       <c r="G60" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="25">
         <v>9</v>
       </c>
@@ -11297,8 +11405,11 @@
       <c r="G61" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="25">
         <v>9</v>
       </c>
@@ -11320,8 +11431,11 @@
       <c r="G62" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="25">
         <v>9</v>
       </c>
@@ -11343,8 +11457,11 @@
       <c r="G63" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="25">
         <v>9</v>
       </c>
@@ -11365,6 +11482,9 @@
       </c>
       <c r="G64" s="25">
         <v>0</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -11389,6 +11509,9 @@
       <c r="G65" s="25">
         <v>0</v>
       </c>
+      <c r="H65" s="25" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="25">
@@ -11412,6 +11535,9 @@
       <c r="G66" s="25">
         <v>0</v>
       </c>
+      <c r="H66" s="25" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="67" spans="1:8" s="1" customFormat="1">
       <c r="A67" s="1">
@@ -11435,6 +11561,9 @@
       <c r="G67" s="1">
         <v>0</v>
       </c>
+      <c r="H67" s="25" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="68" spans="1:8" s="1" customFormat="1">
       <c r="A68" s="1">
@@ -11458,6 +11587,9 @@
       <c r="G68" s="1">
         <v>0</v>
       </c>
+      <c r="H68" s="25" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="69" spans="1:8" s="1" customFormat="1">
       <c r="A69" s="1">
@@ -11481,6 +11613,9 @@
       <c r="G69" s="1">
         <v>0</v>
       </c>
+      <c r="H69" s="25" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="70" spans="1:8" s="1" customFormat="1">
       <c r="A70" s="1">
@@ -11504,6 +11639,9 @@
       <c r="G70" s="1">
         <v>0</v>
       </c>
+      <c r="H70" s="25" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="71" spans="1:8" s="1" customFormat="1">
       <c r="A71" s="1">
@@ -11527,6 +11665,9 @@
       <c r="G71" s="1">
         <v>0</v>
       </c>
+      <c r="H71" s="25" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="72" spans="1:8" s="1" customFormat="1">
       <c r="A72" s="1">
@@ -11550,6 +11691,9 @@
       <c r="G72" s="1">
         <v>0</v>
       </c>
+      <c r="H72" s="25" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="73" spans="1:8" s="1" customFormat="1">
       <c r="A73" s="1">
@@ -11572,6 +11716,9 @@
       </c>
       <c r="G73" s="1">
         <v>0</v>
+      </c>
+      <c r="H73" s="25" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:8">

--- a/mygame.xlsx
+++ b/mygame.xlsx
@@ -9817,7 +9817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H633"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>

--- a/mygame.xlsx
+++ b/mygame.xlsx
@@ -4021,7 +4021,7 @@
   <dimension ref="A1:T93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="A4:F13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9817,8 +9817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H633"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/mygame.xlsx
+++ b/mygame.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740" activeTab="2"/>
@@ -11,7 +11,7 @@
     <sheet name="popdrop" sheetId="7" r:id="rId2"/>
     <sheet name="upBall" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -4020,7 +4020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -9818,7 +9818,7 @@
   <dimension ref="A1:H633"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+      <selection activeCell="C67" sqref="C67:C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11547,7 +11547,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D67" s="1">
         <v>5</v>
@@ -11573,7 +11573,7 @@
         <v>2</v>
       </c>
       <c r="C68" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D68" s="1">
         <v>5</v>
@@ -11599,7 +11599,7 @@
         <v>3</v>
       </c>
       <c r="C69" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D69" s="1">
         <v>5</v>
@@ -11625,7 +11625,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D70" s="1">
         <v>5</v>
@@ -11651,7 +11651,7 @@
         <v>5</v>
       </c>
       <c r="C71" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D71" s="1">
         <v>5</v>
@@ -11677,7 +11677,7 @@
         <v>6</v>
       </c>
       <c r="C72" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D72" s="1">
         <v>5</v>
@@ -11703,7 +11703,7 @@
         <v>7</v>
       </c>
       <c r="C73" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D73" s="1">
         <v>5</v>
